--- a/1174/1174_TestCase.xlsx
+++ b/1174/1174_TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="103">
   <si>
     <t>VERSION</t>
   </si>
@@ -460,7 +460,49 @@
     <t>Mobie</t>
   </si>
   <si>
-    <t>- Link: Kiểm tra link có độ dài lớn hơn 150 ký tự</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Kết quả thực tế</t>
+  </si>
+  <si>
+    <t>Hình 11.2</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>Block 1174</t>
+  </si>
+  <si>
+    <t>17/09/2019</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi ấn vào liên kết</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào một biểu tượng liên kết bất kỳ</t>
+  </si>
+  <si>
+    <t>Liên kết dẫn tới trang bất kỳ hoặc tại trang hiện tại có dấu "#"</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi hover vào một thẻ item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Rê chuột vào một thẻ item bất kỳ. </t>
+  </si>
+  <si>
+    <t>Thay đổi màu nền của thẻ để nhận biết đang rê chuột vào.</t>
+  </si>
+  <si>
+    <t>- Link: Kiểm tra nội dung item có dộ dài lớn hơn 50 ký</t>
   </si>
   <si>
     <r>
@@ -472,12 +514,12 @@
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
       </rPr>
-      <t>lớn hơn 100 ký tự</t>
+      <t>lớn hơn 50 ký tự</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">- Link sẽ chỉ hiện 60 ký tự và phần còn lại sẽ thu gọn bằng dấu </t>
+      <t xml:space="preserve">- Link sẽ chỉ hiện35 ký tự và phần còn lại sẽ thu gọn bằng dấu </t>
     </r>
     <r>
       <rPr>
@@ -489,58 +531,118 @@
     </r>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Kết quả thực tế</t>
-  </si>
-  <si>
-    <t>Hình 11.2</t>
-  </si>
-  <si>
-    <t>Kết quả mong đợi</t>
-  </si>
-  <si>
-    <t>Block 1174</t>
-  </si>
-  <si>
-    <t>17/09/2019</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>Kiểm tra khi ấn vào liên kết</t>
-  </si>
-  <si>
-    <t>1. Nhấn vào một biểu tượng liên kết bất kỳ</t>
-  </si>
-  <si>
-    <t>Liên kết dẫn tới trang bất kỳ hoặc tại trang hiện tại có dấu "#"</t>
-  </si>
-  <si>
-    <t>Kiểm tra khi hover vào một thẻ item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Rê chuột vào một thẻ item bất kỳ. </t>
-  </si>
-  <si>
-    <t>Thay đổi màu nền của thẻ để nhận biết đang rê chuột vào.</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>- Hiển thị trên trình duyệt IE (màn hình PC)</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php bằng trình duyệt IE trên PC</t>
+  </si>
+  <si>
+    <t>Giao diện hiển thị bình thường, không bị lỗi</t>
+  </si>
+  <si>
+    <t>19/09/2019</t>
+  </si>
+  <si>
+    <t>Hình 7</t>
+  </si>
+  <si>
+    <t>Evidance!C60</t>
+  </si>
+  <si>
+    <t>- Hiển thị trên trình duyệt Opera (màn hình PC)</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php bằng trình duyệt Opera trên PC</t>
+  </si>
+  <si>
+    <t>- Hiển thị trên trình duyệt Chrome (màn hình PC)</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php bằng trình duyệt Chrome trên PC</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trên Chrome</t>
+  </si>
+  <si>
+    <t>Liên kết tới các file CSS bình thường, không bị hỏng hoặc mất file (lỗi 404)</t>
+  </si>
+  <si>
+    <t>- Kiểm tra liên kết CSS</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trên Firefox</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trên Cốc Cốc</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị icon</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trênChrome</t>
+  </si>
+  <si>
+    <t>Icon của mỗi item hiển thị bình thường không bị mất hoặc không hiển thị</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trên Opera</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trên IE</t>
+  </si>
+  <si>
+    <t>Hình 16</t>
+  </si>
+  <si>
+    <t>Evidance!C151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra khi ấn vào nút thu gọn ở góc trên bên phải </t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trên Chrome
+2. Ấn vào nút thu gọn</t>
+  </si>
+  <si>
+    <t>Nội dung sẽ ẩn đi</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị nội dung thanh navbar</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ title góc trái và 3 nút liên kết góc phải</t>
+  </si>
+  <si>
+    <t>Hình 18</t>
+  </si>
+  <si>
+    <t>1. Mở trang 1174.php trên Firefox
+2. Ấn vào nút thu gọn</t>
+  </si>
+  <si>
+    <t>Evidance!C192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,75 +989,75 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,335 +1066,348 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1471,6 +1586,143 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>127262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="11249025"/>
+          <a:ext cx="6772275" cy="6213737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494781</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>123214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="28575000"/>
+          <a:ext cx="4152381" cy="4885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>56366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="36385500"/>
+          <a:ext cx="10058400" cy="2723366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4428,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BA44" sqref="BA44:BH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -4444,287 +4696,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="130" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="131" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="133" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="132"/>
-      <c r="AS1" s="133" t="s">
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="109" t="s">
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="111"/>
-      <c r="BA1" s="122" t="s">
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="122"/>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="122"/>
-      <c r="BE1" s="122"/>
-      <c r="BF1" s="122"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="122"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="126" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="128">
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="93">
         <f>COUNTIF($AR:$AR,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="128">
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="92"/>
+      <c r="AS2" s="93">
         <f>COUNTIF($AR:$AR,"NG")</f>
-        <v>5</v>
-      </c>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="110"/>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="111"/>
-      <c r="BA2" s="129" t="s">
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="109" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="110"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="110"/>
-      <c r="AY3" s="110"/>
-      <c r="AZ3" s="111"/>
-      <c r="BA3" s="112"/>
-      <c r="BB3" s="113"/>
-      <c r="BC3" s="113"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="113"/>
-      <c r="BF3" s="113"/>
-      <c r="BG3" s="113"/>
-      <c r="BH3" s="114"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="99"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="100"/>
+      <c r="BD3" s="100"/>
+      <c r="BE3" s="100"/>
+      <c r="BF3" s="100"/>
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="101"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="115" t="s">
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="120"/>
-      <c r="AW4" s="115" t="s">
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="120"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="104"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -4790,226 +5042,226 @@
       <c r="BI5" s="6"/>
     </row>
     <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="121" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="98" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="98" t="s">
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="98" t="s">
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111"/>
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="98" t="s">
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="112"/>
+      <c r="AR6" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="100"/>
-      <c r="AU6" s="98" t="s">
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="AV6" s="99"/>
-      <c r="AW6" s="100"/>
-      <c r="AX6" s="98" t="s">
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="99"/>
-      <c r="AZ6" s="100"/>
-      <c r="BA6" s="108" t="s">
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108"/>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="14.25">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="104" t="s">
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105" t="s">
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106" t="s">
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="102"/>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="101"/>
-      <c r="AS7" s="102"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="102"/>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="101"/>
-      <c r="AY7" s="102"/>
-      <c r="AZ7" s="103"/>
-      <c r="BA7" s="108"/>
-      <c r="BB7" s="108"/>
-      <c r="BC7" s="108"/>
-      <c r="BD7" s="108"/>
-      <c r="BE7" s="108"/>
-      <c r="BF7" s="108"/>
-      <c r="BG7" s="108"/>
-      <c r="BH7" s="108"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="115"/>
+      <c r="AN7" s="113"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="115"/>
+      <c r="AR7" s="113"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="113"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="115"/>
+      <c r="AX7" s="113"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="115"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="116"/>
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="116"/>
+      <c r="BG7" s="116"/>
+      <c r="BH7" s="116"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="63">
+      <c r="A8" s="54">
         <v>1</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="67" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="73" t="s">
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="78" t="s">
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="58"/>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY8" s="58"/>
-      <c r="AZ8" s="59"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY8" s="76"/>
+      <c r="AZ8" s="77"/>
       <c r="BA8" s="48"/>
       <c r="BB8" s="49"/>
       <c r="BC8" s="49"/>
@@ -5021,58 +5273,58 @@
       <c r="BI8" s="10"/>
     </row>
     <row r="9" spans="1:61" s="4" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="62"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="80"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="80"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="80"/>
       <c r="BA9" s="51"/>
       <c r="BB9" s="52"/>
       <c r="BC9" s="52"/>
@@ -5084,76 +5336,76 @@
       <c r="BI9" s="10"/>
     </row>
     <row r="10" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="63">
+      <c r="A10" s="54">
         <v>2</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="67" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="73" t="s">
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="78" t="s">
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY10" s="58"/>
-      <c r="AZ10" s="59"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="77"/>
       <c r="BA10" s="48"/>
       <c r="BB10" s="49"/>
       <c r="BC10" s="49"/>
@@ -5165,58 +5417,58 @@
       <c r="BI10" s="10"/>
     </row>
     <row r="11" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="62"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="80"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="80"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="80"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="80"/>
       <c r="BA11" s="51"/>
       <c r="BB11" s="52"/>
       <c r="BC11" s="52"/>
@@ -5228,76 +5480,76 @@
       <c r="BI11" s="10"/>
     </row>
     <row r="12" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="63">
+      <c r="A12" s="54">
         <v>3</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="67" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="73" t="s">
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="78" t="s">
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="74"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="59"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="77"/>
       <c r="BA12" s="48"/>
       <c r="BB12" s="49"/>
       <c r="BC12" s="49"/>
@@ -5309,58 +5561,58 @@
       <c r="BI12" s="10"/>
     </row>
     <row r="13" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="62"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="80"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="80"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="80"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="80"/>
       <c r="BA13" s="51"/>
       <c r="BB13" s="52"/>
       <c r="BC13" s="52"/>
@@ -5372,76 +5624,76 @@
       <c r="BI13" s="10"/>
     </row>
     <row r="14" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="63">
+      <c r="A14" s="54">
         <v>4</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="57" t="s">
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="59"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="77"/>
       <c r="BA14" s="48"/>
       <c r="BB14" s="49"/>
       <c r="BC14" s="49"/>
@@ -5453,58 +5705,58 @@
       <c r="BI14" s="10"/>
     </row>
     <row r="15" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="83"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="61"/>
-      <c r="AP15" s="61"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="61"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="61"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="61"/>
-      <c r="AZ15" s="62"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="80"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="80"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="80"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="79"/>
+      <c r="AZ15" s="80"/>
       <c r="BA15" s="51"/>
       <c r="BB15" s="52"/>
       <c r="BC15" s="52"/>
@@ -5516,76 +5768,76 @@
       <c r="BI15" s="10"/>
     </row>
     <row r="16" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A16" s="63">
+      <c r="A16" s="54">
         <v>5</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="67" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="59"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY16" s="58"/>
-      <c r="AZ16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="77"/>
+      <c r="AX16" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY16" s="76"/>
+      <c r="AZ16" s="77"/>
       <c r="BA16" s="48"/>
       <c r="BB16" s="49"/>
       <c r="BC16" s="49"/>
@@ -5597,58 +5849,58 @@
       <c r="BI16" s="10"/>
     </row>
     <row r="17" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="61"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="60"/>
-      <c r="AY17" s="61"/>
-      <c r="AZ17" s="62"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="80"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="79"/>
+      <c r="AT17" s="80"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="80"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="79"/>
+      <c r="AZ17" s="80"/>
       <c r="BA17" s="51"/>
       <c r="BB17" s="52"/>
       <c r="BC17" s="52"/>
@@ -5660,58 +5912,76 @@
       <c r="BI17" s="10"/>
     </row>
     <row r="18" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="59"/>
+      <c r="A18" s="54">
+        <v>6</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="77"/>
       <c r="BA18" s="48"/>
       <c r="BB18" s="49"/>
       <c r="BC18" s="49"/>
@@ -5723,58 +5993,58 @@
       <c r="BI18" s="10"/>
     </row>
     <row r="19" spans="1:61" s="4" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="83"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="60"/>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="60"/>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="62"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="80"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="79"/>
+      <c r="AT19" s="80"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="80"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="80"/>
       <c r="BA19" s="51"/>
       <c r="BB19" s="52"/>
       <c r="BC19" s="52"/>
@@ -5786,59 +6056,79 @@
       <c r="BI19" s="10"/>
     </row>
     <row r="20" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="74"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="74"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="48"/>
+      <c r="A20" s="54">
+        <v>7</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="64"/>
+      <c r="AM20" s="135"/>
+      <c r="AN20" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="75"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="BB20" s="49"/>
       <c r="BC20" s="49"/>
       <c r="BD20" s="49"/>
@@ -5849,58 +6139,58 @@
       <c r="BI20" s="10"/>
     </row>
     <row r="21" spans="1:61" s="4" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="83"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="60"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="62"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="136"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="137"/>
+      <c r="AM21" s="138"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="80"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="80"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="80"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="80"/>
       <c r="BA21" s="51"/>
       <c r="BB21" s="52"/>
       <c r="BC21" s="52"/>
@@ -5912,58 +6202,76 @@
       <c r="BI21" s="10"/>
     </row>
     <row r="22" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="74"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="58"/>
-      <c r="AZ22" s="59"/>
+      <c r="A22" s="54">
+        <v>8</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="135"/>
+      <c r="AN22" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="75"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY22" s="76"/>
+      <c r="AZ22" s="77"/>
       <c r="BA22" s="48"/>
       <c r="BB22" s="49"/>
       <c r="BC22" s="49"/>
@@ -5975,58 +6283,58 @@
       <c r="BI22" s="10"/>
     </row>
     <row r="23" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="83"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="61"/>
-      <c r="AP23" s="61"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="61"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="60"/>
-      <c r="AV23" s="61"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="60"/>
-      <c r="AY23" s="61"/>
-      <c r="AZ23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="137"/>
+      <c r="AH23" s="137"/>
+      <c r="AI23" s="137"/>
+      <c r="AJ23" s="137"/>
+      <c r="AK23" s="137"/>
+      <c r="AL23" s="137"/>
+      <c r="AM23" s="138"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="80"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="80"/>
+      <c r="AX23" s="78"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="80"/>
       <c r="BA23" s="51"/>
       <c r="BB23" s="52"/>
       <c r="BC23" s="52"/>
@@ -6038,58 +6346,76 @@
       <c r="BI23" s="10"/>
     </row>
     <row r="24" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="80"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
-      <c r="AJ24" s="74"/>
-      <c r="AK24" s="74"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="75"/>
-      <c r="AN24" s="57"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="57"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="57"/>
-      <c r="AY24" s="58"/>
-      <c r="AZ24" s="59"/>
+      <c r="A24" s="54">
+        <v>9</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="135"/>
+      <c r="AN24" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="77"/>
+      <c r="AU24" s="75"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY24" s="76"/>
+      <c r="AZ24" s="77"/>
       <c r="BA24" s="48"/>
       <c r="BB24" s="49"/>
       <c r="BC24" s="49"/>
@@ -6101,58 +6427,58 @@
       <c r="BI24" s="10"/>
     </row>
     <row r="25" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="83"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="61"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="60"/>
-      <c r="AS25" s="61"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="60"/>
-      <c r="AV25" s="61"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="60"/>
-      <c r="AY25" s="61"/>
-      <c r="AZ25" s="62"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="136"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="138"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="79"/>
+      <c r="AQ25" s="80"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="79"/>
+      <c r="AT25" s="80"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="79"/>
+      <c r="AW25" s="80"/>
+      <c r="AX25" s="78"/>
+      <c r="AY25" s="79"/>
+      <c r="AZ25" s="80"/>
       <c r="BA25" s="51"/>
       <c r="BB25" s="52"/>
       <c r="BC25" s="52"/>
@@ -6164,58 +6490,76 @@
       <c r="BI25" s="10"/>
     </row>
     <row r="26" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="58"/>
-      <c r="AZ26" s="59"/>
+      <c r="A26" s="54">
+        <v>10</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="77"/>
+      <c r="AU26" s="75"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="77"/>
+      <c r="AX26" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="77"/>
       <c r="BA26" s="48"/>
       <c r="BB26" s="49"/>
       <c r="BC26" s="49"/>
@@ -6227,58 +6571,58 @@
       <c r="BI26" s="10"/>
     </row>
     <row r="27" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="60"/>
-      <c r="AS27" s="61"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="60"/>
-      <c r="AV27" s="61"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="60"/>
-      <c r="AY27" s="61"/>
-      <c r="AZ27" s="62"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="80"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="80"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="80"/>
       <c r="BA27" s="51"/>
       <c r="BB27" s="52"/>
       <c r="BC27" s="52"/>
@@ -6290,184 +6634,220 @@
       <c r="BI27" s="10"/>
     </row>
     <row r="28" spans="1:61" s="4" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="74"/>
-      <c r="AK28" s="74"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="59"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="59"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="59"/>
-      <c r="BA28" s="54"/>
-      <c r="BB28" s="55"/>
-      <c r="BC28" s="55"/>
-      <c r="BD28" s="55"/>
-      <c r="BE28" s="55"/>
-      <c r="BF28" s="55"/>
-      <c r="BG28" s="55"/>
-      <c r="BH28" s="56"/>
+      <c r="A28" s="54">
+        <v>11</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="77"/>
+      <c r="AU28" s="75"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="77"/>
+      <c r="AX28" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="77"/>
+      <c r="BA28" s="131"/>
+      <c r="BB28" s="132"/>
+      <c r="BC28" s="132"/>
+      <c r="BD28" s="132"/>
+      <c r="BE28" s="132"/>
+      <c r="BF28" s="132"/>
+      <c r="BG28" s="132"/>
+      <c r="BH28" s="133"/>
       <c r="BI28" s="10"/>
     </row>
     <row r="29" spans="1:61" s="4" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="76"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="83"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="61"/>
-      <c r="AP29" s="61"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="60"/>
-      <c r="AS29" s="61"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="60"/>
-      <c r="AV29" s="61"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="60"/>
-      <c r="AY29" s="61"/>
-      <c r="AZ29" s="62"/>
-      <c r="BA29" s="54"/>
-      <c r="BB29" s="55"/>
-      <c r="BC29" s="55"/>
-      <c r="BD29" s="55"/>
-      <c r="BE29" s="55"/>
-      <c r="BF29" s="55"/>
-      <c r="BG29" s="55"/>
-      <c r="BH29" s="56"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="78"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="80"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="80"/>
+      <c r="AX29" s="78"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="80"/>
+      <c r="BA29" s="131"/>
+      <c r="BB29" s="132"/>
+      <c r="BC29" s="132"/>
+      <c r="BD29" s="132"/>
+      <c r="BE29" s="132"/>
+      <c r="BF29" s="132"/>
+      <c r="BG29" s="132"/>
+      <c r="BH29" s="133"/>
       <c r="BI29" s="10"/>
     </row>
     <row r="30" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="74"/>
-      <c r="AI30" s="74"/>
-      <c r="AJ30" s="74"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="58"/>
-      <c r="AP30" s="58"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="58"/>
-      <c r="AT30" s="59"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="59"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="58"/>
-      <c r="AZ30" s="59"/>
+      <c r="A30" s="54">
+        <v>12</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="77"/>
+      <c r="AU30" s="75"/>
+      <c r="AV30" s="76"/>
+      <c r="AW30" s="77"/>
+      <c r="AX30" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY30" s="76"/>
+      <c r="AZ30" s="77"/>
       <c r="BA30" s="48"/>
       <c r="BB30" s="49"/>
       <c r="BC30" s="49"/>
@@ -6479,58 +6859,58 @@
       <c r="BI30" s="10"/>
     </row>
     <row r="31" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="76"/>
-      <c r="Z31" s="76"/>
-      <c r="AA31" s="76"/>
-      <c r="AB31" s="76"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="83"/>
-      <c r="AN31" s="60"/>
-      <c r="AO31" s="61"/>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="60"/>
-      <c r="AS31" s="61"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="60"/>
-      <c r="AV31" s="61"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="60"/>
-      <c r="AY31" s="61"/>
-      <c r="AZ31" s="62"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="78"/>
+      <c r="AO31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="80"/>
+      <c r="AR31" s="78"/>
+      <c r="AS31" s="79"/>
+      <c r="AT31" s="80"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="80"/>
+      <c r="AX31" s="78"/>
+      <c r="AY31" s="79"/>
+      <c r="AZ31" s="80"/>
       <c r="BA31" s="51"/>
       <c r="BB31" s="52"/>
       <c r="BC31" s="52"/>
@@ -6542,58 +6922,76 @@
       <c r="BI31" s="10"/>
     </row>
     <row r="32" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="74"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="80"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="74"/>
-      <c r="AF32" s="74"/>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="74"/>
-      <c r="AI32" s="74"/>
-      <c r="AJ32" s="74"/>
-      <c r="AK32" s="74"/>
-      <c r="AL32" s="74"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="58"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="58"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="59"/>
-      <c r="AX32" s="57"/>
-      <c r="AY32" s="58"/>
-      <c r="AZ32" s="59"/>
+      <c r="A32" s="54">
+        <v>13</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="77"/>
+      <c r="AR32" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="77"/>
+      <c r="AU32" s="75"/>
+      <c r="AV32" s="76"/>
+      <c r="AW32" s="77"/>
+      <c r="AX32" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY32" s="76"/>
+      <c r="AZ32" s="77"/>
       <c r="BA32" s="48"/>
       <c r="BB32" s="49"/>
       <c r="BC32" s="49"/>
@@ -6605,58 +7003,58 @@
       <c r="BI32" s="10"/>
     </row>
     <row r="33" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="82"/>
-      <c r="AF33" s="82"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="82"/>
-      <c r="AJ33" s="82"/>
-      <c r="AK33" s="82"/>
-      <c r="AL33" s="82"/>
-      <c r="AM33" s="83"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="61"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="60"/>
-      <c r="AS33" s="61"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="60"/>
-      <c r="AV33" s="61"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="60"/>
-      <c r="AY33" s="61"/>
-      <c r="AZ33" s="62"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="78"/>
+      <c r="AO33" s="79"/>
+      <c r="AP33" s="79"/>
+      <c r="AQ33" s="80"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="79"/>
+      <c r="AT33" s="80"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="79"/>
+      <c r="AW33" s="80"/>
+      <c r="AX33" s="78"/>
+      <c r="AY33" s="79"/>
+      <c r="AZ33" s="80"/>
       <c r="BA33" s="51"/>
       <c r="BB33" s="52"/>
       <c r="BC33" s="52"/>
@@ -6668,58 +7066,76 @@
       <c r="BI33" s="10"/>
     </row>
     <row r="34" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="74"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="74"/>
-      <c r="AJ34" s="74"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="59"/>
+      <c r="A34" s="54">
+        <v>14</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO34" s="76"/>
+      <c r="AP34" s="76"/>
+      <c r="AQ34" s="77"/>
+      <c r="AR34" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="77"/>
+      <c r="AU34" s="75"/>
+      <c r="AV34" s="76"/>
+      <c r="AW34" s="77"/>
+      <c r="AX34" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY34" s="76"/>
+      <c r="AZ34" s="77"/>
       <c r="BA34" s="48"/>
       <c r="BB34" s="49"/>
       <c r="BC34" s="49"/>
@@ -6731,58 +7147,58 @@
       <c r="BI34" s="10"/>
     </row>
     <row r="35" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="81"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="82"/>
-      <c r="AF35" s="82"/>
-      <c r="AG35" s="82"/>
-      <c r="AH35" s="82"/>
-      <c r="AI35" s="82"/>
-      <c r="AJ35" s="82"/>
-      <c r="AK35" s="82"/>
-      <c r="AL35" s="82"/>
-      <c r="AM35" s="83"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="61"/>
-      <c r="AP35" s="61"/>
-      <c r="AQ35" s="62"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="61"/>
-      <c r="AT35" s="62"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="61"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="60"/>
-      <c r="AY35" s="61"/>
-      <c r="AZ35" s="62"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="73"/>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="74"/>
+      <c r="AN35" s="78"/>
+      <c r="AO35" s="79"/>
+      <c r="AP35" s="79"/>
+      <c r="AQ35" s="80"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="79"/>
+      <c r="AT35" s="80"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="79"/>
+      <c r="AW35" s="80"/>
+      <c r="AX35" s="78"/>
+      <c r="AY35" s="79"/>
+      <c r="AZ35" s="80"/>
       <c r="BA35" s="51"/>
       <c r="BB35" s="52"/>
       <c r="BC35" s="52"/>
@@ -6794,58 +7210,76 @@
       <c r="BI35" s="10"/>
     </row>
     <row r="36" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="80"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="74"/>
-      <c r="AM36" s="75"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="58"/>
-      <c r="AP36" s="58"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="58"/>
-      <c r="AT36" s="59"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="58"/>
-      <c r="AW36" s="59"/>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="58"/>
-      <c r="AZ36" s="59"/>
+      <c r="A36" s="54">
+        <v>15</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="77"/>
+      <c r="AR36" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="77"/>
+      <c r="AU36" s="75"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="77"/>
+      <c r="AX36" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="77"/>
       <c r="BA36" s="48"/>
       <c r="BB36" s="49"/>
       <c r="BC36" s="49"/>
@@ -6857,58 +7291,58 @@
       <c r="BI36" s="10"/>
     </row>
     <row r="37" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="82"/>
-      <c r="AE37" s="82"/>
-      <c r="AF37" s="82"/>
-      <c r="AG37" s="82"/>
-      <c r="AH37" s="82"/>
-      <c r="AI37" s="82"/>
-      <c r="AJ37" s="82"/>
-      <c r="AK37" s="82"/>
-      <c r="AL37" s="82"/>
-      <c r="AM37" s="83"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="61"/>
-      <c r="AP37" s="61"/>
-      <c r="AQ37" s="62"/>
-      <c r="AR37" s="60"/>
-      <c r="AS37" s="61"/>
-      <c r="AT37" s="62"/>
-      <c r="AU37" s="60"/>
-      <c r="AV37" s="61"/>
-      <c r="AW37" s="62"/>
-      <c r="AX37" s="60"/>
-      <c r="AY37" s="61"/>
-      <c r="AZ37" s="62"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="78"/>
+      <c r="AO37" s="79"/>
+      <c r="AP37" s="79"/>
+      <c r="AQ37" s="80"/>
+      <c r="AR37" s="78"/>
+      <c r="AS37" s="79"/>
+      <c r="AT37" s="80"/>
+      <c r="AU37" s="78"/>
+      <c r="AV37" s="79"/>
+      <c r="AW37" s="80"/>
+      <c r="AX37" s="78"/>
+      <c r="AY37" s="79"/>
+      <c r="AZ37" s="80"/>
       <c r="BA37" s="51"/>
       <c r="BB37" s="52"/>
       <c r="BC37" s="52"/>
@@ -6920,59 +7354,79 @@
       <c r="BI37" s="10"/>
     </row>
     <row r="38" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="74"/>
-      <c r="AA38" s="74"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="80"/>
-      <c r="AD38" s="74"/>
-      <c r="AE38" s="74"/>
-      <c r="AF38" s="74"/>
-      <c r="AG38" s="74"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="74"/>
-      <c r="AJ38" s="74"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="74"/>
-      <c r="AM38" s="75"/>
-      <c r="AN38" s="57"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="58"/>
-      <c r="AQ38" s="59"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="59"/>
-      <c r="AU38" s="57"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="59"/>
-      <c r="AX38" s="57"/>
-      <c r="AY38" s="58"/>
-      <c r="AZ38" s="59"/>
-      <c r="BA38" s="48"/>
+      <c r="A38" s="54">
+        <v>16</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="65"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="65"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="77"/>
+      <c r="AR38" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="77"/>
+      <c r="AU38" s="75"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="77"/>
+      <c r="AX38" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="77"/>
+      <c r="BA38" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="BB38" s="49"/>
       <c r="BC38" s="49"/>
       <c r="BD38" s="49"/>
@@ -6983,58 +7437,58 @@
       <c r="BI38" s="10"/>
     </row>
     <row r="39" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="76"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="76"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="76"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="82"/>
-      <c r="AF39" s="82"/>
-      <c r="AG39" s="82"/>
-      <c r="AH39" s="82"/>
-      <c r="AI39" s="82"/>
-      <c r="AJ39" s="82"/>
-      <c r="AK39" s="82"/>
-      <c r="AL39" s="82"/>
-      <c r="AM39" s="83"/>
-      <c r="AN39" s="60"/>
-      <c r="AO39" s="61"/>
-      <c r="AP39" s="61"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="60"/>
-      <c r="AS39" s="61"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="60"/>
-      <c r="AV39" s="61"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="60"/>
-      <c r="AY39" s="61"/>
-      <c r="AZ39" s="62"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="73"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="78"/>
+      <c r="AO39" s="79"/>
+      <c r="AP39" s="79"/>
+      <c r="AQ39" s="80"/>
+      <c r="AR39" s="78"/>
+      <c r="AS39" s="79"/>
+      <c r="AT39" s="80"/>
+      <c r="AU39" s="78"/>
+      <c r="AV39" s="79"/>
+      <c r="AW39" s="80"/>
+      <c r="AX39" s="78"/>
+      <c r="AY39" s="79"/>
+      <c r="AZ39" s="80"/>
       <c r="BA39" s="51"/>
       <c r="BB39" s="52"/>
       <c r="BC39" s="52"/>
@@ -7046,58 +7500,76 @@
       <c r="BI39" s="10"/>
     </row>
     <row r="40" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="78"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="74"/>
-      <c r="AB40" s="74"/>
-      <c r="AC40" s="80"/>
-      <c r="AD40" s="74"/>
-      <c r="AE40" s="74"/>
-      <c r="AF40" s="74"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="74"/>
-      <c r="AI40" s="74"/>
-      <c r="AJ40" s="74"/>
-      <c r="AK40" s="74"/>
-      <c r="AL40" s="74"/>
-      <c r="AM40" s="75"/>
-      <c r="AN40" s="57"/>
-      <c r="AO40" s="58"/>
-      <c r="AP40" s="58"/>
-      <c r="AQ40" s="59"/>
-      <c r="AR40" s="57"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="59"/>
-      <c r="AU40" s="57"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="59"/>
-      <c r="AX40" s="57"/>
-      <c r="AY40" s="58"/>
-      <c r="AZ40" s="59"/>
+      <c r="A40" s="54">
+        <v>17</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="65"/>
+      <c r="AH40" s="65"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="65"/>
+      <c r="AK40" s="65"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO40" s="76"/>
+      <c r="AP40" s="76"/>
+      <c r="AQ40" s="77"/>
+      <c r="AR40" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS40" s="76"/>
+      <c r="AT40" s="77"/>
+      <c r="AU40" s="75"/>
+      <c r="AV40" s="76"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY40" s="76"/>
+      <c r="AZ40" s="77"/>
       <c r="BA40" s="48"/>
       <c r="BB40" s="49"/>
       <c r="BC40" s="49"/>
@@ -7109,58 +7581,58 @@
       <c r="BI40" s="10"/>
     </row>
     <row r="41" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="76"/>
-      <c r="AB41" s="76"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="82"/>
-      <c r="AF41" s="82"/>
-      <c r="AG41" s="82"/>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="82"/>
-      <c r="AJ41" s="82"/>
-      <c r="AK41" s="82"/>
-      <c r="AL41" s="82"/>
-      <c r="AM41" s="83"/>
-      <c r="AN41" s="60"/>
-      <c r="AO41" s="61"/>
-      <c r="AP41" s="61"/>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="60"/>
-      <c r="AS41" s="61"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="60"/>
-      <c r="AV41" s="61"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="60"/>
-      <c r="AY41" s="61"/>
-      <c r="AZ41" s="62"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="73"/>
+      <c r="AL41" s="73"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="78"/>
+      <c r="AO41" s="79"/>
+      <c r="AP41" s="79"/>
+      <c r="AQ41" s="80"/>
+      <c r="AR41" s="78"/>
+      <c r="AS41" s="79"/>
+      <c r="AT41" s="80"/>
+      <c r="AU41" s="78"/>
+      <c r="AV41" s="79"/>
+      <c r="AW41" s="80"/>
+      <c r="AX41" s="78"/>
+      <c r="AY41" s="79"/>
+      <c r="AZ41" s="80"/>
       <c r="BA41" s="51"/>
       <c r="BB41" s="52"/>
       <c r="BC41" s="52"/>
@@ -7171,59 +7643,77 @@
       <c r="BH41" s="53"/>
       <c r="BI41" s="10"/>
     </row>
-    <row r="42" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="80"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="74"/>
-      <c r="AF42" s="74"/>
-      <c r="AG42" s="74"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="74"/>
-      <c r="AJ42" s="74"/>
-      <c r="AK42" s="74"/>
-      <c r="AL42" s="74"/>
-      <c r="AM42" s="75"/>
-      <c r="AN42" s="57"/>
-      <c r="AO42" s="58"/>
-      <c r="AP42" s="58"/>
-      <c r="AQ42" s="59"/>
-      <c r="AR42" s="57"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="59"/>
-      <c r="AU42" s="57"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="59"/>
-      <c r="AX42" s="57"/>
-      <c r="AY42" s="58"/>
-      <c r="AZ42" s="59"/>
+    <row r="42" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A42" s="54">
+        <v>18</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="65"/>
+      <c r="AH42" s="65"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="65"/>
+      <c r="AK42" s="65"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="66"/>
+      <c r="AN42" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="76"/>
+      <c r="AQ42" s="77"/>
+      <c r="AR42" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS42" s="76"/>
+      <c r="AT42" s="77"/>
+      <c r="AU42" s="75"/>
+      <c r="AV42" s="76"/>
+      <c r="AW42" s="77"/>
+      <c r="AX42" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY42" s="76"/>
+      <c r="AZ42" s="77"/>
       <c r="BA42" s="48"/>
       <c r="BB42" s="49"/>
       <c r="BC42" s="49"/>
@@ -7234,59 +7724,59 @@
       <c r="BH42" s="50"/>
       <c r="BI42" s="10"/>
     </row>
-    <row r="43" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="76"/>
-      <c r="W43" s="76"/>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="76"/>
-      <c r="AA43" s="76"/>
-      <c r="AB43" s="76"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="82"/>
-      <c r="AF43" s="82"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="82"/>
-      <c r="AI43" s="82"/>
-      <c r="AJ43" s="82"/>
-      <c r="AK43" s="82"/>
-      <c r="AL43" s="82"/>
-      <c r="AM43" s="83"/>
-      <c r="AN43" s="60"/>
-      <c r="AO43" s="61"/>
-      <c r="AP43" s="61"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="60"/>
-      <c r="AS43" s="61"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="60"/>
-      <c r="AV43" s="61"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="60"/>
-      <c r="AY43" s="61"/>
-      <c r="AZ43" s="62"/>
+    <row r="43" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="67"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="73"/>
+      <c r="AM43" s="74"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="79"/>
+      <c r="AP43" s="79"/>
+      <c r="AQ43" s="80"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="79"/>
+      <c r="AT43" s="80"/>
+      <c r="AU43" s="78"/>
+      <c r="AV43" s="79"/>
+      <c r="AW43" s="80"/>
+      <c r="AX43" s="78"/>
+      <c r="AY43" s="79"/>
+      <c r="AZ43" s="80"/>
       <c r="BA43" s="51"/>
       <c r="BB43" s="52"/>
       <c r="BC43" s="52"/>
@@ -7297,60 +7787,80 @@
       <c r="BH43" s="53"/>
       <c r="BI43" s="10"/>
     </row>
-    <row r="44" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="80"/>
-      <c r="AD44" s="74"/>
-      <c r="AE44" s="74"/>
-      <c r="AF44" s="74"/>
-      <c r="AG44" s="74"/>
-      <c r="AH44" s="74"/>
-      <c r="AI44" s="74"/>
-      <c r="AJ44" s="74"/>
-      <c r="AK44" s="74"/>
-      <c r="AL44" s="74"/>
-      <c r="AM44" s="75"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="58"/>
-      <c r="AP44" s="58"/>
-      <c r="AQ44" s="59"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="58"/>
-      <c r="AT44" s="59"/>
-      <c r="AU44" s="57"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="59"/>
-      <c r="AX44" s="57"/>
-      <c r="AY44" s="58"/>
-      <c r="AZ44" s="59"/>
-      <c r="BA44" s="48"/>
+    <row r="44" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A44" s="54">
+        <v>19</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="65"/>
+      <c r="AH44" s="65"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="65"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="77"/>
+      <c r="AR44" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="77"/>
+      <c r="AU44" s="75"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="77"/>
+      <c r="AX44" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="77"/>
+      <c r="BA44" s="48" t="s">
+        <v>102</v>
+      </c>
       <c r="BB44" s="49"/>
       <c r="BC44" s="49"/>
       <c r="BD44" s="49"/>
@@ -7360,59 +7870,59 @@
       <c r="BH44" s="50"/>
       <c r="BI44" s="10"/>
     </row>
-    <row r="45" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="76"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="76"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="82"/>
-      <c r="AE45" s="82"/>
-      <c r="AF45" s="82"/>
-      <c r="AG45" s="82"/>
-      <c r="AH45" s="82"/>
-      <c r="AI45" s="82"/>
-      <c r="AJ45" s="82"/>
-      <c r="AK45" s="82"/>
-      <c r="AL45" s="82"/>
-      <c r="AM45" s="83"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="61"/>
-      <c r="AP45" s="61"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="60"/>
-      <c r="AS45" s="61"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="60"/>
-      <c r="AV45" s="61"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="60"/>
-      <c r="AY45" s="61"/>
-      <c r="AZ45" s="62"/>
+    <row r="45" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="72"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="73"/>
+      <c r="AM45" s="74"/>
+      <c r="AN45" s="78"/>
+      <c r="AO45" s="79"/>
+      <c r="AP45" s="79"/>
+      <c r="AQ45" s="80"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="79"/>
+      <c r="AT45" s="80"/>
+      <c r="AU45" s="78"/>
+      <c r="AV45" s="79"/>
+      <c r="AW45" s="80"/>
+      <c r="AX45" s="78"/>
+      <c r="AY45" s="79"/>
+      <c r="AZ45" s="80"/>
       <c r="BA45" s="51"/>
       <c r="BB45" s="52"/>
       <c r="BC45" s="52"/>
@@ -7423,59 +7933,77 @@
       <c r="BH45" s="53"/>
       <c r="BI45" s="10"/>
     </row>
-    <row r="46" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="80"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="74"/>
-      <c r="AG46" s="74"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="74"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="74"/>
-      <c r="AM46" s="75"/>
-      <c r="AN46" s="57"/>
-      <c r="AO46" s="58"/>
-      <c r="AP46" s="58"/>
-      <c r="AQ46" s="59"/>
-      <c r="AR46" s="57"/>
-      <c r="AS46" s="58"/>
-      <c r="AT46" s="59"/>
-      <c r="AU46" s="57"/>
-      <c r="AV46" s="58"/>
-      <c r="AW46" s="59"/>
-      <c r="AX46" s="57"/>
-      <c r="AY46" s="58"/>
-      <c r="AZ46" s="59"/>
+    <row r="46" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A46" s="54">
+        <v>20</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="65"/>
+      <c r="AC46" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="65"/>
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="65"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="65"/>
+      <c r="AK46" s="65"/>
+      <c r="AL46" s="65"/>
+      <c r="AM46" s="66"/>
+      <c r="AN46" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO46" s="76"/>
+      <c r="AP46" s="76"/>
+      <c r="AQ46" s="77"/>
+      <c r="AR46" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="77"/>
+      <c r="AU46" s="75"/>
+      <c r="AV46" s="76"/>
+      <c r="AW46" s="77"/>
+      <c r="AX46" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY46" s="76"/>
+      <c r="AZ46" s="77"/>
       <c r="BA46" s="48"/>
       <c r="BB46" s="49"/>
       <c r="BC46" s="49"/>
@@ -7486,59 +8014,59 @@
       <c r="BH46" s="50"/>
       <c r="BI46" s="10"/>
     </row>
-    <row r="47" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="77"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="76"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="76"/>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="76"/>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="82"/>
-      <c r="AE47" s="82"/>
-      <c r="AF47" s="82"/>
-      <c r="AG47" s="82"/>
-      <c r="AH47" s="82"/>
-      <c r="AI47" s="82"/>
-      <c r="AJ47" s="82"/>
-      <c r="AK47" s="82"/>
-      <c r="AL47" s="82"/>
-      <c r="AM47" s="83"/>
-      <c r="AN47" s="60"/>
-      <c r="AO47" s="61"/>
-      <c r="AP47" s="61"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="60"/>
-      <c r="AS47" s="61"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="60"/>
-      <c r="AV47" s="61"/>
-      <c r="AW47" s="62"/>
-      <c r="AX47" s="60"/>
-      <c r="AY47" s="61"/>
-      <c r="AZ47" s="62"/>
+    <row r="47" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="67"/>
+      <c r="X47" s="67"/>
+      <c r="Y47" s="67"/>
+      <c r="Z47" s="67"/>
+      <c r="AA47" s="67"/>
+      <c r="AB47" s="67"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="73"/>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="78"/>
+      <c r="AO47" s="79"/>
+      <c r="AP47" s="79"/>
+      <c r="AQ47" s="80"/>
+      <c r="AR47" s="78"/>
+      <c r="AS47" s="79"/>
+      <c r="AT47" s="80"/>
+      <c r="AU47" s="78"/>
+      <c r="AV47" s="79"/>
+      <c r="AW47" s="80"/>
+      <c r="AX47" s="78"/>
+      <c r="AY47" s="79"/>
+      <c r="AZ47" s="80"/>
       <c r="BA47" s="51"/>
       <c r="BB47" s="52"/>
       <c r="BC47" s="52"/>
@@ -7550,58 +8078,76 @@
       <c r="BI47" s="10"/>
     </row>
     <row r="48" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="78"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="74"/>
-      <c r="AA48" s="74"/>
-      <c r="AB48" s="74"/>
-      <c r="AC48" s="80"/>
-      <c r="AD48" s="74"/>
-      <c r="AE48" s="74"/>
-      <c r="AF48" s="74"/>
-      <c r="AG48" s="74"/>
-      <c r="AH48" s="74"/>
-      <c r="AI48" s="74"/>
-      <c r="AJ48" s="74"/>
-      <c r="AK48" s="74"/>
-      <c r="AL48" s="74"/>
-      <c r="AM48" s="75"/>
-      <c r="AN48" s="57"/>
-      <c r="AO48" s="58"/>
-      <c r="AP48" s="58"/>
-      <c r="AQ48" s="59"/>
-      <c r="AR48" s="57"/>
-      <c r="AS48" s="58"/>
-      <c r="AT48" s="59"/>
-      <c r="AU48" s="57"/>
-      <c r="AV48" s="58"/>
-      <c r="AW48" s="59"/>
-      <c r="AX48" s="57"/>
-      <c r="AY48" s="58"/>
-      <c r="AZ48" s="59"/>
+      <c r="A48" s="54">
+        <v>21</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65"/>
+      <c r="AB48" s="65"/>
+      <c r="AC48" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="65"/>
+      <c r="AG48" s="65"/>
+      <c r="AH48" s="65"/>
+      <c r="AI48" s="65"/>
+      <c r="AJ48" s="65"/>
+      <c r="AK48" s="65"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO48" s="76"/>
+      <c r="AP48" s="76"/>
+      <c r="AQ48" s="77"/>
+      <c r="AR48" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS48" s="76"/>
+      <c r="AT48" s="77"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="76"/>
+      <c r="AW48" s="77"/>
+      <c r="AX48" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY48" s="76"/>
+      <c r="AZ48" s="77"/>
       <c r="BA48" s="48"/>
       <c r="BB48" s="49"/>
       <c r="BC48" s="49"/>
@@ -7613,58 +8159,58 @@
       <c r="BI48" s="10"/>
     </row>
     <row r="49" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="77"/>
-      <c r="T49" s="79"/>
-      <c r="U49" s="76"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="76"/>
-      <c r="X49" s="76"/>
-      <c r="Y49" s="76"/>
-      <c r="Z49" s="76"/>
-      <c r="AA49" s="76"/>
-      <c r="AB49" s="76"/>
-      <c r="AC49" s="81"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
-      <c r="AK49" s="82"/>
-      <c r="AL49" s="82"/>
-      <c r="AM49" s="83"/>
-      <c r="AN49" s="60"/>
-      <c r="AO49" s="61"/>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="62"/>
-      <c r="AR49" s="60"/>
-      <c r="AS49" s="61"/>
-      <c r="AT49" s="62"/>
-      <c r="AU49" s="60"/>
-      <c r="AV49" s="61"/>
-      <c r="AW49" s="62"/>
-      <c r="AX49" s="60"/>
-      <c r="AY49" s="61"/>
-      <c r="AZ49" s="62"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="67"/>
+      <c r="Y49" s="67"/>
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="67"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="73"/>
+      <c r="AF49" s="73"/>
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="73"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="73"/>
+      <c r="AM49" s="74"/>
+      <c r="AN49" s="78"/>
+      <c r="AO49" s="79"/>
+      <c r="AP49" s="79"/>
+      <c r="AQ49" s="80"/>
+      <c r="AR49" s="78"/>
+      <c r="AS49" s="79"/>
+      <c r="AT49" s="80"/>
+      <c r="AU49" s="78"/>
+      <c r="AV49" s="79"/>
+      <c r="AW49" s="80"/>
+      <c r="AX49" s="78"/>
+      <c r="AY49" s="79"/>
+      <c r="AZ49" s="80"/>
       <c r="BA49" s="51"/>
       <c r="BB49" s="52"/>
       <c r="BC49" s="52"/>
@@ -7676,58 +8222,58 @@
       <c r="BI49" s="10"/>
     </row>
     <row r="50" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="74"/>
-      <c r="R50" s="74"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="74"/>
-      <c r="V50" s="74"/>
-      <c r="W50" s="74"/>
-      <c r="X50" s="74"/>
-      <c r="Y50" s="74"/>
-      <c r="Z50" s="74"/>
-      <c r="AA50" s="74"/>
-      <c r="AB50" s="74"/>
-      <c r="AC50" s="80"/>
-      <c r="AD50" s="74"/>
-      <c r="AE50" s="74"/>
-      <c r="AF50" s="74"/>
-      <c r="AG50" s="74"/>
-      <c r="AH50" s="74"/>
-      <c r="AI50" s="74"/>
-      <c r="AJ50" s="74"/>
-      <c r="AK50" s="74"/>
-      <c r="AL50" s="74"/>
-      <c r="AM50" s="75"/>
-      <c r="AN50" s="57"/>
-      <c r="AO50" s="58"/>
-      <c r="AP50" s="58"/>
-      <c r="AQ50" s="59"/>
-      <c r="AR50" s="57"/>
-      <c r="AS50" s="58"/>
-      <c r="AT50" s="59"/>
-      <c r="AU50" s="57"/>
-      <c r="AV50" s="58"/>
-      <c r="AW50" s="59"/>
-      <c r="AX50" s="57"/>
-      <c r="AY50" s="58"/>
-      <c r="AZ50" s="59"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="65"/>
+      <c r="V50" s="65"/>
+      <c r="W50" s="65"/>
+      <c r="X50" s="65"/>
+      <c r="Y50" s="65"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="65"/>
+      <c r="AB50" s="65"/>
+      <c r="AC50" s="71"/>
+      <c r="AD50" s="65"/>
+      <c r="AE50" s="65"/>
+      <c r="AF50" s="65"/>
+      <c r="AG50" s="65"/>
+      <c r="AH50" s="65"/>
+      <c r="AI50" s="65"/>
+      <c r="AJ50" s="65"/>
+      <c r="AK50" s="65"/>
+      <c r="AL50" s="65"/>
+      <c r="AM50" s="66"/>
+      <c r="AN50" s="75"/>
+      <c r="AO50" s="76"/>
+      <c r="AP50" s="76"/>
+      <c r="AQ50" s="77"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="76"/>
+      <c r="AT50" s="77"/>
+      <c r="AU50" s="75"/>
+      <c r="AV50" s="76"/>
+      <c r="AW50" s="77"/>
+      <c r="AX50" s="75"/>
+      <c r="AY50" s="76"/>
+      <c r="AZ50" s="77"/>
       <c r="BA50" s="48"/>
       <c r="BB50" s="49"/>
       <c r="BC50" s="49"/>
@@ -7739,58 +8285,58 @@
       <c r="BI50" s="10"/>
     </row>
     <row r="51" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="76"/>
-      <c r="S51" s="77"/>
-      <c r="T51" s="79"/>
-      <c r="U51" s="76"/>
-      <c r="V51" s="76"/>
-      <c r="W51" s="76"/>
-      <c r="X51" s="76"/>
-      <c r="Y51" s="76"/>
-      <c r="Z51" s="76"/>
-      <c r="AA51" s="76"/>
-      <c r="AB51" s="76"/>
-      <c r="AC51" s="81"/>
-      <c r="AD51" s="82"/>
-      <c r="AE51" s="82"/>
-      <c r="AF51" s="82"/>
-      <c r="AG51" s="82"/>
-      <c r="AH51" s="82"/>
-      <c r="AI51" s="82"/>
-      <c r="AJ51" s="82"/>
-      <c r="AK51" s="82"/>
-      <c r="AL51" s="82"/>
-      <c r="AM51" s="83"/>
-      <c r="AN51" s="60"/>
-      <c r="AO51" s="61"/>
-      <c r="AP51" s="61"/>
-      <c r="AQ51" s="62"/>
-      <c r="AR51" s="60"/>
-      <c r="AS51" s="61"/>
-      <c r="AT51" s="62"/>
-      <c r="AU51" s="60"/>
-      <c r="AV51" s="61"/>
-      <c r="AW51" s="62"/>
-      <c r="AX51" s="60"/>
-      <c r="AY51" s="61"/>
-      <c r="AZ51" s="62"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="70"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="72"/>
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="73"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="73"/>
+      <c r="AI51" s="73"/>
+      <c r="AJ51" s="73"/>
+      <c r="AK51" s="73"/>
+      <c r="AL51" s="73"/>
+      <c r="AM51" s="74"/>
+      <c r="AN51" s="78"/>
+      <c r="AO51" s="79"/>
+      <c r="AP51" s="79"/>
+      <c r="AQ51" s="80"/>
+      <c r="AR51" s="78"/>
+      <c r="AS51" s="79"/>
+      <c r="AT51" s="80"/>
+      <c r="AU51" s="78"/>
+      <c r="AV51" s="79"/>
+      <c r="AW51" s="80"/>
+      <c r="AX51" s="78"/>
+      <c r="AY51" s="79"/>
+      <c r="AZ51" s="80"/>
       <c r="BA51" s="51"/>
       <c r="BB51" s="52"/>
       <c r="BC51" s="52"/>
@@ -7802,58 +8348,58 @@
       <c r="BI51" s="10"/>
     </row>
     <row r="52" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="74"/>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="74"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="78"/>
-      <c r="U52" s="74"/>
-      <c r="V52" s="74"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="74"/>
-      <c r="Y52" s="74"/>
-      <c r="Z52" s="74"/>
-      <c r="AA52" s="74"/>
-      <c r="AB52" s="74"/>
-      <c r="AC52" s="80"/>
-      <c r="AD52" s="74"/>
-      <c r="AE52" s="74"/>
-      <c r="AF52" s="74"/>
-      <c r="AG52" s="74"/>
-      <c r="AH52" s="74"/>
-      <c r="AI52" s="74"/>
-      <c r="AJ52" s="74"/>
-      <c r="AK52" s="74"/>
-      <c r="AL52" s="74"/>
-      <c r="AM52" s="75"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="58"/>
-      <c r="AP52" s="58"/>
-      <c r="AQ52" s="59"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="58"/>
-      <c r="AT52" s="59"/>
-      <c r="AU52" s="57"/>
-      <c r="AV52" s="58"/>
-      <c r="AW52" s="59"/>
-      <c r="AX52" s="57"/>
-      <c r="AY52" s="58"/>
-      <c r="AZ52" s="59"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="65"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
+      <c r="AA52" s="65"/>
+      <c r="AB52" s="65"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="65"/>
+      <c r="AE52" s="65"/>
+      <c r="AF52" s="65"/>
+      <c r="AG52" s="65"/>
+      <c r="AH52" s="65"/>
+      <c r="AI52" s="65"/>
+      <c r="AJ52" s="65"/>
+      <c r="AK52" s="65"/>
+      <c r="AL52" s="65"/>
+      <c r="AM52" s="66"/>
+      <c r="AN52" s="75"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="76"/>
+      <c r="AQ52" s="77"/>
+      <c r="AR52" s="75"/>
+      <c r="AS52" s="76"/>
+      <c r="AT52" s="77"/>
+      <c r="AU52" s="75"/>
+      <c r="AV52" s="76"/>
+      <c r="AW52" s="77"/>
+      <c r="AX52" s="75"/>
+      <c r="AY52" s="76"/>
+      <c r="AZ52" s="77"/>
       <c r="BA52" s="48"/>
       <c r="BB52" s="49"/>
       <c r="BC52" s="49"/>
@@ -7865,58 +8411,58 @@
       <c r="BI52" s="10"/>
     </row>
     <row r="53" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="77"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="76"/>
-      <c r="V53" s="76"/>
-      <c r="W53" s="76"/>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="76"/>
-      <c r="Z53" s="76"/>
-      <c r="AA53" s="76"/>
-      <c r="AB53" s="76"/>
-      <c r="AC53" s="81"/>
-      <c r="AD53" s="82"/>
-      <c r="AE53" s="82"/>
-      <c r="AF53" s="82"/>
-      <c r="AG53" s="82"/>
-      <c r="AH53" s="82"/>
-      <c r="AI53" s="82"/>
-      <c r="AJ53" s="82"/>
-      <c r="AK53" s="82"/>
-      <c r="AL53" s="82"/>
-      <c r="AM53" s="83"/>
-      <c r="AN53" s="60"/>
-      <c r="AO53" s="61"/>
-      <c r="AP53" s="61"/>
-      <c r="AQ53" s="62"/>
-      <c r="AR53" s="60"/>
-      <c r="AS53" s="61"/>
-      <c r="AT53" s="62"/>
-      <c r="AU53" s="60"/>
-      <c r="AV53" s="61"/>
-      <c r="AW53" s="62"/>
-      <c r="AX53" s="60"/>
-      <c r="AY53" s="61"/>
-      <c r="AZ53" s="62"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="73"/>
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="73"/>
+      <c r="AL53" s="73"/>
+      <c r="AM53" s="74"/>
+      <c r="AN53" s="78"/>
+      <c r="AO53" s="79"/>
+      <c r="AP53" s="79"/>
+      <c r="AQ53" s="80"/>
+      <c r="AR53" s="78"/>
+      <c r="AS53" s="79"/>
+      <c r="AT53" s="80"/>
+      <c r="AU53" s="78"/>
+      <c r="AV53" s="79"/>
+      <c r="AW53" s="80"/>
+      <c r="AX53" s="78"/>
+      <c r="AY53" s="79"/>
+      <c r="AZ53" s="80"/>
       <c r="BA53" s="51"/>
       <c r="BB53" s="52"/>
       <c r="BC53" s="52"/>
@@ -7928,58 +8474,58 @@
       <c r="BI53" s="10"/>
     </row>
     <row r="54" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="74"/>
-      <c r="V54" s="74"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="74"/>
-      <c r="Y54" s="74"/>
-      <c r="Z54" s="74"/>
-      <c r="AA54" s="74"/>
-      <c r="AB54" s="74"/>
-      <c r="AC54" s="80"/>
-      <c r="AD54" s="74"/>
-      <c r="AE54" s="74"/>
-      <c r="AF54" s="74"/>
-      <c r="AG54" s="74"/>
-      <c r="AH54" s="74"/>
-      <c r="AI54" s="74"/>
-      <c r="AJ54" s="74"/>
-      <c r="AK54" s="74"/>
-      <c r="AL54" s="74"/>
-      <c r="AM54" s="75"/>
-      <c r="AN54" s="57"/>
-      <c r="AO54" s="58"/>
-      <c r="AP54" s="58"/>
-      <c r="AQ54" s="59"/>
-      <c r="AR54" s="57"/>
-      <c r="AS54" s="58"/>
-      <c r="AT54" s="59"/>
-      <c r="AU54" s="57"/>
-      <c r="AV54" s="58"/>
-      <c r="AW54" s="59"/>
-      <c r="AX54" s="57"/>
-      <c r="AY54" s="58"/>
-      <c r="AZ54" s="59"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="65"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="65"/>
+      <c r="AB54" s="65"/>
+      <c r="AC54" s="71"/>
+      <c r="AD54" s="65"/>
+      <c r="AE54" s="65"/>
+      <c r="AF54" s="65"/>
+      <c r="AG54" s="65"/>
+      <c r="AH54" s="65"/>
+      <c r="AI54" s="65"/>
+      <c r="AJ54" s="65"/>
+      <c r="AK54" s="65"/>
+      <c r="AL54" s="65"/>
+      <c r="AM54" s="66"/>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="76"/>
+      <c r="AP54" s="76"/>
+      <c r="AQ54" s="77"/>
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="76"/>
+      <c r="AT54" s="77"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="76"/>
+      <c r="AW54" s="77"/>
+      <c r="AX54" s="75"/>
+      <c r="AY54" s="76"/>
+      <c r="AZ54" s="77"/>
       <c r="BA54" s="48"/>
       <c r="BB54" s="49"/>
       <c r="BC54" s="49"/>
@@ -7991,58 +8537,58 @@
       <c r="BI54" s="10"/>
     </row>
     <row r="55" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="76"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="76"/>
-      <c r="V55" s="76"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="76"/>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="76"/>
-      <c r="AA55" s="76"/>
-      <c r="AB55" s="76"/>
-      <c r="AC55" s="81"/>
-      <c r="AD55" s="82"/>
-      <c r="AE55" s="82"/>
-      <c r="AF55" s="82"/>
-      <c r="AG55" s="82"/>
-      <c r="AH55" s="82"/>
-      <c r="AI55" s="82"/>
-      <c r="AJ55" s="82"/>
-      <c r="AK55" s="82"/>
-      <c r="AL55" s="82"/>
-      <c r="AM55" s="83"/>
-      <c r="AN55" s="60"/>
-      <c r="AO55" s="61"/>
-      <c r="AP55" s="61"/>
-      <c r="AQ55" s="62"/>
-      <c r="AR55" s="60"/>
-      <c r="AS55" s="61"/>
-      <c r="AT55" s="62"/>
-      <c r="AU55" s="60"/>
-      <c r="AV55" s="61"/>
-      <c r="AW55" s="62"/>
-      <c r="AX55" s="60"/>
-      <c r="AY55" s="61"/>
-      <c r="AZ55" s="62"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="67"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="67"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="73"/>
+      <c r="AE55" s="73"/>
+      <c r="AF55" s="73"/>
+      <c r="AG55" s="73"/>
+      <c r="AH55" s="73"/>
+      <c r="AI55" s="73"/>
+      <c r="AJ55" s="73"/>
+      <c r="AK55" s="73"/>
+      <c r="AL55" s="73"/>
+      <c r="AM55" s="74"/>
+      <c r="AN55" s="78"/>
+      <c r="AO55" s="79"/>
+      <c r="AP55" s="79"/>
+      <c r="AQ55" s="80"/>
+      <c r="AR55" s="78"/>
+      <c r="AS55" s="79"/>
+      <c r="AT55" s="80"/>
+      <c r="AU55" s="78"/>
+      <c r="AV55" s="79"/>
+      <c r="AW55" s="80"/>
+      <c r="AX55" s="78"/>
+      <c r="AY55" s="79"/>
+      <c r="AZ55" s="80"/>
       <c r="BA55" s="51"/>
       <c r="BB55" s="52"/>
       <c r="BC55" s="52"/>
@@ -8054,58 +8600,58 @@
       <c r="BI55" s="10"/>
     </row>
     <row r="56" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="74"/>
-      <c r="R56" s="74"/>
-      <c r="S56" s="75"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="74"/>
-      <c r="V56" s="74"/>
-      <c r="W56" s="74"/>
-      <c r="X56" s="74"/>
-      <c r="Y56" s="74"/>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="74"/>
-      <c r="AB56" s="74"/>
-      <c r="AC56" s="80"/>
-      <c r="AD56" s="74"/>
-      <c r="AE56" s="74"/>
-      <c r="AF56" s="74"/>
-      <c r="AG56" s="74"/>
-      <c r="AH56" s="74"/>
-      <c r="AI56" s="74"/>
-      <c r="AJ56" s="74"/>
-      <c r="AK56" s="74"/>
-      <c r="AL56" s="74"/>
-      <c r="AM56" s="75"/>
-      <c r="AN56" s="57"/>
-      <c r="AO56" s="58"/>
-      <c r="AP56" s="58"/>
-      <c r="AQ56" s="59"/>
-      <c r="AR56" s="57"/>
-      <c r="AS56" s="58"/>
-      <c r="AT56" s="59"/>
-      <c r="AU56" s="57"/>
-      <c r="AV56" s="58"/>
-      <c r="AW56" s="59"/>
-      <c r="AX56" s="57"/>
-      <c r="AY56" s="58"/>
-      <c r="AZ56" s="59"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="65"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="65"/>
+      <c r="AE56" s="65"/>
+      <c r="AF56" s="65"/>
+      <c r="AG56" s="65"/>
+      <c r="AH56" s="65"/>
+      <c r="AI56" s="65"/>
+      <c r="AJ56" s="65"/>
+      <c r="AK56" s="65"/>
+      <c r="AL56" s="65"/>
+      <c r="AM56" s="66"/>
+      <c r="AN56" s="75"/>
+      <c r="AO56" s="76"/>
+      <c r="AP56" s="76"/>
+      <c r="AQ56" s="77"/>
+      <c r="AR56" s="75"/>
+      <c r="AS56" s="76"/>
+      <c r="AT56" s="77"/>
+      <c r="AU56" s="75"/>
+      <c r="AV56" s="76"/>
+      <c r="AW56" s="77"/>
+      <c r="AX56" s="75"/>
+      <c r="AY56" s="76"/>
+      <c r="AZ56" s="77"/>
       <c r="BA56" s="48"/>
       <c r="BB56" s="49"/>
       <c r="BC56" s="49"/>
@@ -8117,58 +8663,58 @@
       <c r="BI56" s="10"/>
     </row>
     <row r="57" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="77"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="76"/>
-      <c r="Y57" s="76"/>
-      <c r="Z57" s="76"/>
-      <c r="AA57" s="76"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="81"/>
-      <c r="AD57" s="82"/>
-      <c r="AE57" s="82"/>
-      <c r="AF57" s="82"/>
-      <c r="AG57" s="82"/>
-      <c r="AH57" s="82"/>
-      <c r="AI57" s="82"/>
-      <c r="AJ57" s="82"/>
-      <c r="AK57" s="82"/>
-      <c r="AL57" s="82"/>
-      <c r="AM57" s="83"/>
-      <c r="AN57" s="60"/>
-      <c r="AO57" s="61"/>
-      <c r="AP57" s="61"/>
-      <c r="AQ57" s="62"/>
-      <c r="AR57" s="60"/>
-      <c r="AS57" s="61"/>
-      <c r="AT57" s="62"/>
-      <c r="AU57" s="60"/>
-      <c r="AV57" s="61"/>
-      <c r="AW57" s="62"/>
-      <c r="AX57" s="60"/>
-      <c r="AY57" s="61"/>
-      <c r="AZ57" s="62"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="72"/>
+      <c r="AD57" s="73"/>
+      <c r="AE57" s="73"/>
+      <c r="AF57" s="73"/>
+      <c r="AG57" s="73"/>
+      <c r="AH57" s="73"/>
+      <c r="AI57" s="73"/>
+      <c r="AJ57" s="73"/>
+      <c r="AK57" s="73"/>
+      <c r="AL57" s="73"/>
+      <c r="AM57" s="74"/>
+      <c r="AN57" s="78"/>
+      <c r="AO57" s="79"/>
+      <c r="AP57" s="79"/>
+      <c r="AQ57" s="80"/>
+      <c r="AR57" s="78"/>
+      <c r="AS57" s="79"/>
+      <c r="AT57" s="80"/>
+      <c r="AU57" s="78"/>
+      <c r="AV57" s="79"/>
+      <c r="AW57" s="80"/>
+      <c r="AX57" s="78"/>
+      <c r="AY57" s="79"/>
+      <c r="AZ57" s="80"/>
       <c r="BA57" s="51"/>
       <c r="BB57" s="52"/>
       <c r="BC57" s="52"/>
@@ -8180,58 +8726,58 @@
       <c r="BI57" s="10"/>
     </row>
     <row r="58" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="75"/>
-      <c r="T58" s="78"/>
-      <c r="U58" s="74"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
-      <c r="X58" s="74"/>
-      <c r="Y58" s="74"/>
-      <c r="Z58" s="74"/>
-      <c r="AA58" s="74"/>
-      <c r="AB58" s="74"/>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="74"/>
-      <c r="AE58" s="74"/>
-      <c r="AF58" s="74"/>
-      <c r="AG58" s="74"/>
-      <c r="AH58" s="74"/>
-      <c r="AI58" s="74"/>
-      <c r="AJ58" s="74"/>
-      <c r="AK58" s="74"/>
-      <c r="AL58" s="74"/>
-      <c r="AM58" s="75"/>
-      <c r="AN58" s="57"/>
-      <c r="AO58" s="58"/>
-      <c r="AP58" s="58"/>
-      <c r="AQ58" s="59"/>
-      <c r="AR58" s="57"/>
-      <c r="AS58" s="58"/>
-      <c r="AT58" s="59"/>
-      <c r="AU58" s="57"/>
-      <c r="AV58" s="58"/>
-      <c r="AW58" s="59"/>
-      <c r="AX58" s="57"/>
-      <c r="AY58" s="58"/>
-      <c r="AZ58" s="59"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="65"/>
+      <c r="V58" s="65"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="65"/>
+      <c r="Z58" s="65"/>
+      <c r="AA58" s="65"/>
+      <c r="AB58" s="65"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="65"/>
+      <c r="AE58" s="65"/>
+      <c r="AF58" s="65"/>
+      <c r="AG58" s="65"/>
+      <c r="AH58" s="65"/>
+      <c r="AI58" s="65"/>
+      <c r="AJ58" s="65"/>
+      <c r="AK58" s="65"/>
+      <c r="AL58" s="65"/>
+      <c r="AM58" s="66"/>
+      <c r="AN58" s="75"/>
+      <c r="AO58" s="76"/>
+      <c r="AP58" s="76"/>
+      <c r="AQ58" s="77"/>
+      <c r="AR58" s="75"/>
+      <c r="AS58" s="76"/>
+      <c r="AT58" s="77"/>
+      <c r="AU58" s="75"/>
+      <c r="AV58" s="76"/>
+      <c r="AW58" s="77"/>
+      <c r="AX58" s="75"/>
+      <c r="AY58" s="76"/>
+      <c r="AZ58" s="77"/>
       <c r="BA58" s="48"/>
       <c r="BB58" s="49"/>
       <c r="BC58" s="49"/>
@@ -8243,58 +8789,58 @@
       <c r="BI58" s="10"/>
     </row>
     <row r="59" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="76"/>
-      <c r="S59" s="77"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="76"/>
-      <c r="Y59" s="76"/>
-      <c r="Z59" s="76"/>
-      <c r="AA59" s="76"/>
-      <c r="AB59" s="76"/>
-      <c r="AC59" s="81"/>
-      <c r="AD59" s="82"/>
-      <c r="AE59" s="82"/>
-      <c r="AF59" s="82"/>
-      <c r="AG59" s="82"/>
-      <c r="AH59" s="82"/>
-      <c r="AI59" s="82"/>
-      <c r="AJ59" s="82"/>
-      <c r="AK59" s="82"/>
-      <c r="AL59" s="82"/>
-      <c r="AM59" s="83"/>
-      <c r="AN59" s="60"/>
-      <c r="AO59" s="61"/>
-      <c r="AP59" s="61"/>
-      <c r="AQ59" s="62"/>
-      <c r="AR59" s="60"/>
-      <c r="AS59" s="61"/>
-      <c r="AT59" s="62"/>
-      <c r="AU59" s="60"/>
-      <c r="AV59" s="61"/>
-      <c r="AW59" s="62"/>
-      <c r="AX59" s="60"/>
-      <c r="AY59" s="61"/>
-      <c r="AZ59" s="62"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="72"/>
+      <c r="AD59" s="73"/>
+      <c r="AE59" s="73"/>
+      <c r="AF59" s="73"/>
+      <c r="AG59" s="73"/>
+      <c r="AH59" s="73"/>
+      <c r="AI59" s="73"/>
+      <c r="AJ59" s="73"/>
+      <c r="AK59" s="73"/>
+      <c r="AL59" s="73"/>
+      <c r="AM59" s="74"/>
+      <c r="AN59" s="78"/>
+      <c r="AO59" s="79"/>
+      <c r="AP59" s="79"/>
+      <c r="AQ59" s="80"/>
+      <c r="AR59" s="78"/>
+      <c r="AS59" s="79"/>
+      <c r="AT59" s="80"/>
+      <c r="AU59" s="78"/>
+      <c r="AV59" s="79"/>
+      <c r="AW59" s="80"/>
+      <c r="AX59" s="78"/>
+      <c r="AY59" s="79"/>
+      <c r="AZ59" s="80"/>
       <c r="BA59" s="51"/>
       <c r="BB59" s="52"/>
       <c r="BC59" s="52"/>
@@ -8306,58 +8852,58 @@
       <c r="BI59" s="10"/>
     </row>
     <row r="60" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="78"/>
-      <c r="U60" s="74"/>
-      <c r="V60" s="74"/>
-      <c r="W60" s="74"/>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="74"/>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="80"/>
-      <c r="AD60" s="74"/>
-      <c r="AE60" s="74"/>
-      <c r="AF60" s="74"/>
-      <c r="AG60" s="74"/>
-      <c r="AH60" s="74"/>
-      <c r="AI60" s="74"/>
-      <c r="AJ60" s="74"/>
-      <c r="AK60" s="74"/>
-      <c r="AL60" s="74"/>
-      <c r="AM60" s="75"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="58"/>
-      <c r="AP60" s="58"/>
-      <c r="AQ60" s="59"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="58"/>
-      <c r="AT60" s="59"/>
-      <c r="AU60" s="57"/>
-      <c r="AV60" s="58"/>
-      <c r="AW60" s="59"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="58"/>
-      <c r="AZ60" s="59"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="65"/>
+      <c r="AB60" s="65"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="65"/>
+      <c r="AE60" s="65"/>
+      <c r="AF60" s="65"/>
+      <c r="AG60" s="65"/>
+      <c r="AH60" s="65"/>
+      <c r="AI60" s="65"/>
+      <c r="AJ60" s="65"/>
+      <c r="AK60" s="65"/>
+      <c r="AL60" s="65"/>
+      <c r="AM60" s="66"/>
+      <c r="AN60" s="75"/>
+      <c r="AO60" s="76"/>
+      <c r="AP60" s="76"/>
+      <c r="AQ60" s="77"/>
+      <c r="AR60" s="75"/>
+      <c r="AS60" s="76"/>
+      <c r="AT60" s="77"/>
+      <c r="AU60" s="75"/>
+      <c r="AV60" s="76"/>
+      <c r="AW60" s="77"/>
+      <c r="AX60" s="75"/>
+      <c r="AY60" s="76"/>
+      <c r="AZ60" s="77"/>
       <c r="BA60" s="48"/>
       <c r="BB60" s="49"/>
       <c r="BC60" s="49"/>
@@ -8369,58 +8915,58 @@
       <c r="BI60" s="10"/>
     </row>
     <row r="61" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A61" s="65"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="76"/>
-      <c r="S61" s="77"/>
-      <c r="T61" s="79"/>
-      <c r="U61" s="76"/>
-      <c r="V61" s="76"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="76"/>
-      <c r="Y61" s="76"/>
-      <c r="Z61" s="76"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="81"/>
-      <c r="AD61" s="82"/>
-      <c r="AE61" s="82"/>
-      <c r="AF61" s="82"/>
-      <c r="AG61" s="82"/>
-      <c r="AH61" s="82"/>
-      <c r="AI61" s="82"/>
-      <c r="AJ61" s="82"/>
-      <c r="AK61" s="82"/>
-      <c r="AL61" s="82"/>
-      <c r="AM61" s="83"/>
-      <c r="AN61" s="60"/>
-      <c r="AO61" s="61"/>
-      <c r="AP61" s="61"/>
-      <c r="AQ61" s="62"/>
-      <c r="AR61" s="60"/>
-      <c r="AS61" s="61"/>
-      <c r="AT61" s="62"/>
-      <c r="AU61" s="60"/>
-      <c r="AV61" s="61"/>
-      <c r="AW61" s="62"/>
-      <c r="AX61" s="60"/>
-      <c r="AY61" s="61"/>
-      <c r="AZ61" s="62"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="72"/>
+      <c r="AD61" s="73"/>
+      <c r="AE61" s="73"/>
+      <c r="AF61" s="73"/>
+      <c r="AG61" s="73"/>
+      <c r="AH61" s="73"/>
+      <c r="AI61" s="73"/>
+      <c r="AJ61" s="73"/>
+      <c r="AK61" s="73"/>
+      <c r="AL61" s="73"/>
+      <c r="AM61" s="74"/>
+      <c r="AN61" s="78"/>
+      <c r="AO61" s="79"/>
+      <c r="AP61" s="79"/>
+      <c r="AQ61" s="80"/>
+      <c r="AR61" s="78"/>
+      <c r="AS61" s="79"/>
+      <c r="AT61" s="80"/>
+      <c r="AU61" s="78"/>
+      <c r="AV61" s="79"/>
+      <c r="AW61" s="80"/>
+      <c r="AX61" s="78"/>
+      <c r="AY61" s="79"/>
+      <c r="AZ61" s="80"/>
       <c r="BA61" s="51"/>
       <c r="BB61" s="52"/>
       <c r="BC61" s="52"/>
@@ -8432,58 +8978,58 @@
       <c r="BI61" s="10"/>
     </row>
     <row r="62" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A62" s="63"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="74"/>
-      <c r="R62" s="74"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="78"/>
-      <c r="U62" s="74"/>
-      <c r="V62" s="74"/>
-      <c r="W62" s="74"/>
-      <c r="X62" s="74"/>
-      <c r="Y62" s="74"/>
-      <c r="Z62" s="74"/>
-      <c r="AA62" s="74"/>
-      <c r="AB62" s="74"/>
-      <c r="AC62" s="80"/>
-      <c r="AD62" s="74"/>
-      <c r="AE62" s="74"/>
-      <c r="AF62" s="74"/>
-      <c r="AG62" s="74"/>
-      <c r="AH62" s="74"/>
-      <c r="AI62" s="74"/>
-      <c r="AJ62" s="74"/>
-      <c r="AK62" s="74"/>
-      <c r="AL62" s="74"/>
-      <c r="AM62" s="75"/>
-      <c r="AN62" s="57"/>
-      <c r="AO62" s="58"/>
-      <c r="AP62" s="58"/>
-      <c r="AQ62" s="59"/>
-      <c r="AR62" s="57"/>
-      <c r="AS62" s="58"/>
-      <c r="AT62" s="59"/>
-      <c r="AU62" s="57"/>
-      <c r="AV62" s="58"/>
-      <c r="AW62" s="59"/>
-      <c r="AX62" s="57"/>
-      <c r="AY62" s="58"/>
-      <c r="AZ62" s="59"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="65"/>
+      <c r="S62" s="66"/>
+      <c r="T62" s="69"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
+      <c r="Z62" s="65"/>
+      <c r="AA62" s="65"/>
+      <c r="AB62" s="65"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="65"/>
+      <c r="AE62" s="65"/>
+      <c r="AF62" s="65"/>
+      <c r="AG62" s="65"/>
+      <c r="AH62" s="65"/>
+      <c r="AI62" s="65"/>
+      <c r="AJ62" s="65"/>
+      <c r="AK62" s="65"/>
+      <c r="AL62" s="65"/>
+      <c r="AM62" s="66"/>
+      <c r="AN62" s="75"/>
+      <c r="AO62" s="76"/>
+      <c r="AP62" s="76"/>
+      <c r="AQ62" s="77"/>
+      <c r="AR62" s="75"/>
+      <c r="AS62" s="76"/>
+      <c r="AT62" s="77"/>
+      <c r="AU62" s="75"/>
+      <c r="AV62" s="76"/>
+      <c r="AW62" s="77"/>
+      <c r="AX62" s="75"/>
+      <c r="AY62" s="76"/>
+      <c r="AZ62" s="77"/>
       <c r="BA62" s="48"/>
       <c r="BB62" s="49"/>
       <c r="BC62" s="49"/>
@@ -8495,58 +9041,58 @@
       <c r="BI62" s="10"/>
     </row>
     <row r="63" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="76"/>
-      <c r="P63" s="76"/>
-      <c r="Q63" s="76"/>
-      <c r="R63" s="76"/>
-      <c r="S63" s="77"/>
-      <c r="T63" s="79"/>
-      <c r="U63" s="76"/>
-      <c r="V63" s="76"/>
-      <c r="W63" s="76"/>
-      <c r="X63" s="76"/>
-      <c r="Y63" s="76"/>
-      <c r="Z63" s="76"/>
-      <c r="AA63" s="76"/>
-      <c r="AB63" s="76"/>
-      <c r="AC63" s="81"/>
-      <c r="AD63" s="82"/>
-      <c r="AE63" s="82"/>
-      <c r="AF63" s="82"/>
-      <c r="AG63" s="82"/>
-      <c r="AH63" s="82"/>
-      <c r="AI63" s="82"/>
-      <c r="AJ63" s="82"/>
-      <c r="AK63" s="82"/>
-      <c r="AL63" s="82"/>
-      <c r="AM63" s="83"/>
-      <c r="AN63" s="60"/>
-      <c r="AO63" s="61"/>
-      <c r="AP63" s="61"/>
-      <c r="AQ63" s="62"/>
-      <c r="AR63" s="60"/>
-      <c r="AS63" s="61"/>
-      <c r="AT63" s="62"/>
-      <c r="AU63" s="60"/>
-      <c r="AV63" s="61"/>
-      <c r="AW63" s="62"/>
-      <c r="AX63" s="60"/>
-      <c r="AY63" s="61"/>
-      <c r="AZ63" s="62"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="72"/>
+      <c r="AD63" s="73"/>
+      <c r="AE63" s="73"/>
+      <c r="AF63" s="73"/>
+      <c r="AG63" s="73"/>
+      <c r="AH63" s="73"/>
+      <c r="AI63" s="73"/>
+      <c r="AJ63" s="73"/>
+      <c r="AK63" s="73"/>
+      <c r="AL63" s="73"/>
+      <c r="AM63" s="74"/>
+      <c r="AN63" s="78"/>
+      <c r="AO63" s="79"/>
+      <c r="AP63" s="79"/>
+      <c r="AQ63" s="80"/>
+      <c r="AR63" s="78"/>
+      <c r="AS63" s="79"/>
+      <c r="AT63" s="80"/>
+      <c r="AU63" s="78"/>
+      <c r="AV63" s="79"/>
+      <c r="AW63" s="80"/>
+      <c r="AX63" s="78"/>
+      <c r="AY63" s="79"/>
+      <c r="AZ63" s="80"/>
       <c r="BA63" s="51"/>
       <c r="BB63" s="52"/>
       <c r="BC63" s="52"/>
@@ -8558,58 +9104,58 @@
       <c r="BI63" s="10"/>
     </row>
     <row r="64" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="74"/>
-      <c r="P64" s="74"/>
-      <c r="Q64" s="74"/>
-      <c r="R64" s="74"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="78"/>
-      <c r="U64" s="74"/>
-      <c r="V64" s="74"/>
-      <c r="W64" s="74"/>
-      <c r="X64" s="74"/>
-      <c r="Y64" s="74"/>
-      <c r="Z64" s="74"/>
-      <c r="AA64" s="74"/>
-      <c r="AB64" s="74"/>
-      <c r="AC64" s="80"/>
-      <c r="AD64" s="74"/>
-      <c r="AE64" s="74"/>
-      <c r="AF64" s="74"/>
-      <c r="AG64" s="74"/>
-      <c r="AH64" s="74"/>
-      <c r="AI64" s="74"/>
-      <c r="AJ64" s="74"/>
-      <c r="AK64" s="74"/>
-      <c r="AL64" s="74"/>
-      <c r="AM64" s="75"/>
-      <c r="AN64" s="57"/>
-      <c r="AO64" s="58"/>
-      <c r="AP64" s="58"/>
-      <c r="AQ64" s="59"/>
-      <c r="AR64" s="57"/>
-      <c r="AS64" s="58"/>
-      <c r="AT64" s="59"/>
-      <c r="AU64" s="57"/>
-      <c r="AV64" s="58"/>
-      <c r="AW64" s="59"/>
-      <c r="AX64" s="57"/>
-      <c r="AY64" s="58"/>
-      <c r="AZ64" s="59"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="69"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="65"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="65"/>
+      <c r="Y64" s="65"/>
+      <c r="Z64" s="65"/>
+      <c r="AA64" s="65"/>
+      <c r="AB64" s="65"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="65"/>
+      <c r="AE64" s="65"/>
+      <c r="AF64" s="65"/>
+      <c r="AG64" s="65"/>
+      <c r="AH64" s="65"/>
+      <c r="AI64" s="65"/>
+      <c r="AJ64" s="65"/>
+      <c r="AK64" s="65"/>
+      <c r="AL64" s="65"/>
+      <c r="AM64" s="66"/>
+      <c r="AN64" s="75"/>
+      <c r="AO64" s="76"/>
+      <c r="AP64" s="76"/>
+      <c r="AQ64" s="77"/>
+      <c r="AR64" s="75"/>
+      <c r="AS64" s="76"/>
+      <c r="AT64" s="77"/>
+      <c r="AU64" s="75"/>
+      <c r="AV64" s="76"/>
+      <c r="AW64" s="77"/>
+      <c r="AX64" s="75"/>
+      <c r="AY64" s="76"/>
+      <c r="AZ64" s="77"/>
       <c r="BA64" s="48"/>
       <c r="BB64" s="49"/>
       <c r="BC64" s="49"/>
@@ -8621,58 +9167,58 @@
       <c r="BI64" s="10"/>
     </row>
     <row r="65" spans="1:61" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A65" s="65"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="76"/>
-      <c r="S65" s="77"/>
-      <c r="T65" s="79"/>
-      <c r="U65" s="76"/>
-      <c r="V65" s="76"/>
-      <c r="W65" s="76"/>
-      <c r="X65" s="76"/>
-      <c r="Y65" s="76"/>
-      <c r="Z65" s="76"/>
-      <c r="AA65" s="76"/>
-      <c r="AB65" s="76"/>
-      <c r="AC65" s="81"/>
-      <c r="AD65" s="82"/>
-      <c r="AE65" s="82"/>
-      <c r="AF65" s="82"/>
-      <c r="AG65" s="82"/>
-      <c r="AH65" s="82"/>
-      <c r="AI65" s="82"/>
-      <c r="AJ65" s="82"/>
-      <c r="AK65" s="82"/>
-      <c r="AL65" s="82"/>
-      <c r="AM65" s="83"/>
-      <c r="AN65" s="60"/>
-      <c r="AO65" s="61"/>
-      <c r="AP65" s="61"/>
-      <c r="AQ65" s="62"/>
-      <c r="AR65" s="60"/>
-      <c r="AS65" s="61"/>
-      <c r="AT65" s="62"/>
-      <c r="AU65" s="60"/>
-      <c r="AV65" s="61"/>
-      <c r="AW65" s="62"/>
-      <c r="AX65" s="60"/>
-      <c r="AY65" s="61"/>
-      <c r="AZ65" s="62"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+      <c r="Y65" s="67"/>
+      <c r="Z65" s="67"/>
+      <c r="AA65" s="67"/>
+      <c r="AB65" s="67"/>
+      <c r="AC65" s="72"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
+      <c r="AI65" s="73"/>
+      <c r="AJ65" s="73"/>
+      <c r="AK65" s="73"/>
+      <c r="AL65" s="73"/>
+      <c r="AM65" s="74"/>
+      <c r="AN65" s="78"/>
+      <c r="AO65" s="79"/>
+      <c r="AP65" s="79"/>
+      <c r="AQ65" s="80"/>
+      <c r="AR65" s="78"/>
+      <c r="AS65" s="79"/>
+      <c r="AT65" s="80"/>
+      <c r="AU65" s="78"/>
+      <c r="AV65" s="79"/>
+      <c r="AW65" s="80"/>
+      <c r="AX65" s="78"/>
+      <c r="AY65" s="79"/>
+      <c r="AZ65" s="80"/>
       <c r="BA65" s="51"/>
       <c r="BB65" s="52"/>
       <c r="BC65" s="52"/>
@@ -8685,28 +9231,316 @@
     </row>
   </sheetData>
   <mergeCells count="356">
-    <mergeCell ref="BA24:BH25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:G27"/>
-    <mergeCell ref="H26:L27"/>
-    <mergeCell ref="M26:S27"/>
-    <mergeCell ref="T26:AB27"/>
-    <mergeCell ref="AC26:AM27"/>
-    <mergeCell ref="AN26:AQ27"/>
-    <mergeCell ref="AR26:AT27"/>
-    <mergeCell ref="AU26:AW27"/>
-    <mergeCell ref="AX26:AZ27"/>
-    <mergeCell ref="BA26:BH27"/>
-    <mergeCell ref="AC24:AM25"/>
-    <mergeCell ref="AN24:AQ25"/>
-    <mergeCell ref="AR24:AT25"/>
-    <mergeCell ref="AU24:AW25"/>
-    <mergeCell ref="AX24:AZ25"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:G25"/>
-    <mergeCell ref="H24:L25"/>
-    <mergeCell ref="M24:S25"/>
-    <mergeCell ref="T24:AB25"/>
+    <mergeCell ref="BA12:BH13"/>
+    <mergeCell ref="BA14:BH15"/>
+    <mergeCell ref="BA16:BH17"/>
+    <mergeCell ref="BA28:BH28"/>
+    <mergeCell ref="BA29:BH29"/>
+    <mergeCell ref="AX62:AZ63"/>
+    <mergeCell ref="BA62:BH63"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:G65"/>
+    <mergeCell ref="H64:L65"/>
+    <mergeCell ref="M64:S65"/>
+    <mergeCell ref="T64:AB65"/>
+    <mergeCell ref="AC64:AM65"/>
+    <mergeCell ref="AN64:AQ65"/>
+    <mergeCell ref="AR64:AT65"/>
+    <mergeCell ref="AU64:AW65"/>
+    <mergeCell ref="AX64:AZ65"/>
+    <mergeCell ref="BA64:BH65"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="H62:L63"/>
+    <mergeCell ref="M62:S63"/>
+    <mergeCell ref="T62:AB63"/>
+    <mergeCell ref="AC62:AM63"/>
+    <mergeCell ref="AN62:AQ63"/>
+    <mergeCell ref="AR62:AT63"/>
+    <mergeCell ref="AU62:AW63"/>
+    <mergeCell ref="AX58:AZ59"/>
+    <mergeCell ref="BA58:BH59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:G61"/>
+    <mergeCell ref="H60:L61"/>
+    <mergeCell ref="M60:S61"/>
+    <mergeCell ref="T60:AB61"/>
+    <mergeCell ref="AC60:AM61"/>
+    <mergeCell ref="AN60:AQ61"/>
+    <mergeCell ref="AR60:AT61"/>
+    <mergeCell ref="AU60:AW61"/>
+    <mergeCell ref="AX60:AZ61"/>
+    <mergeCell ref="BA60:BH61"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:G59"/>
+    <mergeCell ref="H58:L59"/>
+    <mergeCell ref="M58:S59"/>
+    <mergeCell ref="T58:AB59"/>
+    <mergeCell ref="AC58:AM59"/>
+    <mergeCell ref="AN58:AQ59"/>
+    <mergeCell ref="AR58:AT59"/>
+    <mergeCell ref="AU58:AW59"/>
+    <mergeCell ref="AX56:AZ57"/>
+    <mergeCell ref="BA56:BH57"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:G57"/>
+    <mergeCell ref="H56:L57"/>
+    <mergeCell ref="M56:S57"/>
+    <mergeCell ref="T56:AB57"/>
+    <mergeCell ref="AC56:AM57"/>
+    <mergeCell ref="AN56:AQ57"/>
+    <mergeCell ref="AR56:AT57"/>
+    <mergeCell ref="AU56:AW57"/>
+    <mergeCell ref="AX52:AZ53"/>
+    <mergeCell ref="BA52:BH53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="H54:L55"/>
+    <mergeCell ref="M54:S55"/>
+    <mergeCell ref="T54:AB55"/>
+    <mergeCell ref="AC54:AM55"/>
+    <mergeCell ref="AN54:AQ55"/>
+    <mergeCell ref="AR54:AT55"/>
+    <mergeCell ref="AU54:AW55"/>
+    <mergeCell ref="AX54:AZ55"/>
+    <mergeCell ref="BA54:BH55"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:G53"/>
+    <mergeCell ref="H52:L53"/>
+    <mergeCell ref="M52:S53"/>
+    <mergeCell ref="T52:AB53"/>
+    <mergeCell ref="AC52:AM53"/>
+    <mergeCell ref="AN52:AQ53"/>
+    <mergeCell ref="AR52:AT53"/>
+    <mergeCell ref="AU52:AW53"/>
+    <mergeCell ref="AX48:AZ49"/>
+    <mergeCell ref="BA48:BH49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:G51"/>
+    <mergeCell ref="H50:L51"/>
+    <mergeCell ref="M50:S51"/>
+    <mergeCell ref="T50:AB51"/>
+    <mergeCell ref="AC50:AM51"/>
+    <mergeCell ref="AN50:AQ51"/>
+    <mergeCell ref="AR50:AT51"/>
+    <mergeCell ref="AU50:AW51"/>
+    <mergeCell ref="AX50:AZ51"/>
+    <mergeCell ref="BA50:BH51"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:G49"/>
+    <mergeCell ref="H48:L49"/>
+    <mergeCell ref="M48:S49"/>
+    <mergeCell ref="T48:AB49"/>
+    <mergeCell ref="AC48:AM49"/>
+    <mergeCell ref="AN48:AQ49"/>
+    <mergeCell ref="AR48:AT49"/>
+    <mergeCell ref="AU48:AW49"/>
+    <mergeCell ref="AX44:AZ45"/>
+    <mergeCell ref="BA44:BH45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:G47"/>
+    <mergeCell ref="H46:L47"/>
+    <mergeCell ref="M46:S47"/>
+    <mergeCell ref="T46:AB47"/>
+    <mergeCell ref="AC46:AM47"/>
+    <mergeCell ref="AN46:AQ47"/>
+    <mergeCell ref="AR46:AT47"/>
+    <mergeCell ref="AU46:AW47"/>
+    <mergeCell ref="AX46:AZ47"/>
+    <mergeCell ref="BA46:BH47"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:G45"/>
+    <mergeCell ref="H44:L45"/>
+    <mergeCell ref="M44:S45"/>
+    <mergeCell ref="T44:AB45"/>
+    <mergeCell ref="AC44:AM45"/>
+    <mergeCell ref="AN44:AQ45"/>
+    <mergeCell ref="AR44:AT45"/>
+    <mergeCell ref="AU44:AW45"/>
+    <mergeCell ref="AX40:AZ41"/>
+    <mergeCell ref="BA40:BH41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:G43"/>
+    <mergeCell ref="H42:L43"/>
+    <mergeCell ref="M42:S43"/>
+    <mergeCell ref="T42:AB43"/>
+    <mergeCell ref="AC42:AM43"/>
+    <mergeCell ref="AN42:AQ43"/>
+    <mergeCell ref="AR42:AT43"/>
+    <mergeCell ref="AU42:AW43"/>
+    <mergeCell ref="AX42:AZ43"/>
+    <mergeCell ref="BA42:BH43"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="H40:L41"/>
+    <mergeCell ref="M40:S41"/>
+    <mergeCell ref="T40:AB41"/>
+    <mergeCell ref="AC40:AM41"/>
+    <mergeCell ref="AN40:AQ41"/>
+    <mergeCell ref="AR40:AT41"/>
+    <mergeCell ref="AU40:AW41"/>
+    <mergeCell ref="AX36:AZ37"/>
+    <mergeCell ref="BA36:BH37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="H38:L39"/>
+    <mergeCell ref="M38:S39"/>
+    <mergeCell ref="T38:AB39"/>
+    <mergeCell ref="AC38:AM39"/>
+    <mergeCell ref="AN38:AQ39"/>
+    <mergeCell ref="AR38:AT39"/>
+    <mergeCell ref="AU38:AW39"/>
+    <mergeCell ref="AX38:AZ39"/>
+    <mergeCell ref="BA38:BH39"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:G37"/>
+    <mergeCell ref="H36:L37"/>
+    <mergeCell ref="M36:S37"/>
+    <mergeCell ref="T36:AB37"/>
+    <mergeCell ref="AC36:AM37"/>
+    <mergeCell ref="AN36:AQ37"/>
+    <mergeCell ref="AR36:AT37"/>
+    <mergeCell ref="AU36:AW37"/>
+    <mergeCell ref="AX32:AZ33"/>
+    <mergeCell ref="BA32:BH33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:G35"/>
+    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="M34:S35"/>
+    <mergeCell ref="T34:AB35"/>
+    <mergeCell ref="AC34:AM35"/>
+    <mergeCell ref="AN34:AQ35"/>
+    <mergeCell ref="AR34:AT35"/>
+    <mergeCell ref="AU34:AW35"/>
+    <mergeCell ref="AX34:AZ35"/>
+    <mergeCell ref="BA34:BH35"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:G33"/>
+    <mergeCell ref="H32:L33"/>
+    <mergeCell ref="M32:S33"/>
+    <mergeCell ref="T32:AB33"/>
+    <mergeCell ref="AC32:AM33"/>
+    <mergeCell ref="AN32:AQ33"/>
+    <mergeCell ref="AR32:AT33"/>
+    <mergeCell ref="AU32:AW33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:G31"/>
+    <mergeCell ref="H30:L31"/>
+    <mergeCell ref="M30:S31"/>
+    <mergeCell ref="T30:AB31"/>
+    <mergeCell ref="AC30:AM31"/>
+    <mergeCell ref="AN30:AQ31"/>
+    <mergeCell ref="AR30:AT31"/>
+    <mergeCell ref="AU30:AW31"/>
+    <mergeCell ref="AX30:AZ31"/>
+    <mergeCell ref="BA30:BH31"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="AR10:AT11"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AZ11"/>
+    <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="H28:L29"/>
+    <mergeCell ref="M28:S29"/>
+    <mergeCell ref="T28:AB29"/>
+    <mergeCell ref="AC28:AM29"/>
+    <mergeCell ref="AN28:AQ29"/>
+    <mergeCell ref="AR28:AT29"/>
+    <mergeCell ref="AU28:AW29"/>
+    <mergeCell ref="AX28:AZ29"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="H12:L13"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="BA8:BH9"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AU8:AW9"/>
+    <mergeCell ref="AX8:AZ9"/>
+    <mergeCell ref="AN8:AQ9"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="T8:AB9"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="BA10:BH11"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AX16:AZ17"/>
+    <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="H16:L17"/>
+    <mergeCell ref="M16:S17"/>
+    <mergeCell ref="T16:AB17"/>
+    <mergeCell ref="AC16:AM17"/>
+    <mergeCell ref="AN16:AQ17"/>
+    <mergeCell ref="AR16:AT17"/>
+    <mergeCell ref="AU16:AW17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="H18:L19"/>
+    <mergeCell ref="M18:S19"/>
+    <mergeCell ref="T18:AB19"/>
+    <mergeCell ref="AC18:AM19"/>
+    <mergeCell ref="AN18:AQ19"/>
+    <mergeCell ref="AR18:AT19"/>
+    <mergeCell ref="AU18:AW19"/>
     <mergeCell ref="AX18:AZ19"/>
     <mergeCell ref="BA18:BH19"/>
     <mergeCell ref="BA20:BH21"/>
@@ -8731,322 +9565,39 @@
     <mergeCell ref="H20:L21"/>
     <mergeCell ref="M20:S21"/>
     <mergeCell ref="T20:AB21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="H18:L19"/>
-    <mergeCell ref="M18:S19"/>
-    <mergeCell ref="T18:AB19"/>
-    <mergeCell ref="AC18:AM19"/>
-    <mergeCell ref="AN18:AQ19"/>
-    <mergeCell ref="AR18:AT19"/>
-    <mergeCell ref="AU18:AW19"/>
-    <mergeCell ref="AX16:AZ17"/>
-    <mergeCell ref="AC14:AM15"/>
-    <mergeCell ref="AN14:AQ15"/>
-    <mergeCell ref="AR14:AT15"/>
-    <mergeCell ref="AU14:AW15"/>
-    <mergeCell ref="AX14:AZ15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="M14:S15"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="H16:L17"/>
-    <mergeCell ref="M16:S17"/>
-    <mergeCell ref="T16:AB17"/>
-    <mergeCell ref="AC16:AM17"/>
-    <mergeCell ref="AN16:AQ17"/>
-    <mergeCell ref="AR16:AT17"/>
-    <mergeCell ref="AU16:AW17"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BH2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AU6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="AN6:AQ7"/>
-    <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="BA10:BH11"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="AN12:AQ13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="BA8:BH9"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="H3:AI4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="T6:AB7"/>
-    <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="AR8:AT9"/>
-    <mergeCell ref="AU8:AW9"/>
-    <mergeCell ref="AX8:AZ9"/>
-    <mergeCell ref="AN8:AQ9"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="T8:AB9"/>
-    <mergeCell ref="AC8:AM9"/>
-    <mergeCell ref="AX30:AZ31"/>
-    <mergeCell ref="BA30:BH31"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AC10:AM11"/>
-    <mergeCell ref="AR10:AT11"/>
-    <mergeCell ref="AU10:AW11"/>
-    <mergeCell ref="AX10:AZ11"/>
-    <mergeCell ref="AN10:AQ11"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="H28:L29"/>
-    <mergeCell ref="M28:S29"/>
-    <mergeCell ref="T28:AB29"/>
-    <mergeCell ref="AC28:AM29"/>
-    <mergeCell ref="AN28:AQ29"/>
-    <mergeCell ref="AR28:AT29"/>
-    <mergeCell ref="AU28:AW29"/>
-    <mergeCell ref="AX28:AZ29"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="H12:L13"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:G31"/>
-    <mergeCell ref="H30:L31"/>
-    <mergeCell ref="M30:S31"/>
-    <mergeCell ref="T30:AB31"/>
-    <mergeCell ref="AC30:AM31"/>
-    <mergeCell ref="AN30:AQ31"/>
-    <mergeCell ref="AR30:AT31"/>
-    <mergeCell ref="AU30:AW31"/>
-    <mergeCell ref="AX32:AZ33"/>
-    <mergeCell ref="BA32:BH33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:G35"/>
-    <mergeCell ref="H34:L35"/>
-    <mergeCell ref="M34:S35"/>
-    <mergeCell ref="T34:AB35"/>
-    <mergeCell ref="AC34:AM35"/>
-    <mergeCell ref="AN34:AQ35"/>
-    <mergeCell ref="AR34:AT35"/>
-    <mergeCell ref="AU34:AW35"/>
-    <mergeCell ref="AX34:AZ35"/>
-    <mergeCell ref="BA34:BH35"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:G33"/>
-    <mergeCell ref="H32:L33"/>
-    <mergeCell ref="M32:S33"/>
-    <mergeCell ref="T32:AB33"/>
-    <mergeCell ref="AC32:AM33"/>
-    <mergeCell ref="AN32:AQ33"/>
-    <mergeCell ref="AR32:AT33"/>
-    <mergeCell ref="AU32:AW33"/>
-    <mergeCell ref="AX36:AZ37"/>
-    <mergeCell ref="BA36:BH37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="H38:L39"/>
-    <mergeCell ref="M38:S39"/>
-    <mergeCell ref="T38:AB39"/>
-    <mergeCell ref="AC38:AM39"/>
-    <mergeCell ref="AN38:AQ39"/>
-    <mergeCell ref="AR38:AT39"/>
-    <mergeCell ref="AU38:AW39"/>
-    <mergeCell ref="AX38:AZ39"/>
-    <mergeCell ref="BA38:BH39"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:G37"/>
-    <mergeCell ref="H36:L37"/>
-    <mergeCell ref="M36:S37"/>
-    <mergeCell ref="T36:AB37"/>
-    <mergeCell ref="AC36:AM37"/>
-    <mergeCell ref="AN36:AQ37"/>
-    <mergeCell ref="AR36:AT37"/>
-    <mergeCell ref="AU36:AW37"/>
-    <mergeCell ref="AX40:AZ41"/>
-    <mergeCell ref="BA40:BH41"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:G43"/>
-    <mergeCell ref="H42:L43"/>
-    <mergeCell ref="M42:S43"/>
-    <mergeCell ref="T42:AB43"/>
-    <mergeCell ref="AC42:AM43"/>
-    <mergeCell ref="AN42:AQ43"/>
-    <mergeCell ref="AR42:AT43"/>
-    <mergeCell ref="AU42:AW43"/>
-    <mergeCell ref="AX42:AZ43"/>
-    <mergeCell ref="BA42:BH43"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:G41"/>
-    <mergeCell ref="H40:L41"/>
-    <mergeCell ref="M40:S41"/>
-    <mergeCell ref="T40:AB41"/>
-    <mergeCell ref="AC40:AM41"/>
-    <mergeCell ref="AN40:AQ41"/>
-    <mergeCell ref="AR40:AT41"/>
-    <mergeCell ref="AU40:AW41"/>
-    <mergeCell ref="AX44:AZ45"/>
-    <mergeCell ref="BA44:BH45"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:G47"/>
-    <mergeCell ref="H46:L47"/>
-    <mergeCell ref="M46:S47"/>
-    <mergeCell ref="T46:AB47"/>
-    <mergeCell ref="AC46:AM47"/>
-    <mergeCell ref="AN46:AQ47"/>
-    <mergeCell ref="AR46:AT47"/>
-    <mergeCell ref="AU46:AW47"/>
-    <mergeCell ref="AX46:AZ47"/>
-    <mergeCell ref="BA46:BH47"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:G45"/>
-    <mergeCell ref="H44:L45"/>
-    <mergeCell ref="M44:S45"/>
-    <mergeCell ref="T44:AB45"/>
-    <mergeCell ref="AC44:AM45"/>
-    <mergeCell ref="AN44:AQ45"/>
-    <mergeCell ref="AR44:AT45"/>
-    <mergeCell ref="AU44:AW45"/>
-    <mergeCell ref="AX48:AZ49"/>
-    <mergeCell ref="BA48:BH49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:G51"/>
-    <mergeCell ref="H50:L51"/>
-    <mergeCell ref="M50:S51"/>
-    <mergeCell ref="T50:AB51"/>
-    <mergeCell ref="AC50:AM51"/>
-    <mergeCell ref="AN50:AQ51"/>
-    <mergeCell ref="AR50:AT51"/>
-    <mergeCell ref="AU50:AW51"/>
-    <mergeCell ref="AX50:AZ51"/>
-    <mergeCell ref="BA50:BH51"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:G49"/>
-    <mergeCell ref="H48:L49"/>
-    <mergeCell ref="M48:S49"/>
-    <mergeCell ref="T48:AB49"/>
-    <mergeCell ref="AC48:AM49"/>
-    <mergeCell ref="AN48:AQ49"/>
-    <mergeCell ref="AR48:AT49"/>
-    <mergeCell ref="AU48:AW49"/>
-    <mergeCell ref="AX52:AZ53"/>
-    <mergeCell ref="BA52:BH53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="H54:L55"/>
-    <mergeCell ref="M54:S55"/>
-    <mergeCell ref="T54:AB55"/>
-    <mergeCell ref="AC54:AM55"/>
-    <mergeCell ref="AN54:AQ55"/>
-    <mergeCell ref="AR54:AT55"/>
-    <mergeCell ref="AU54:AW55"/>
-    <mergeCell ref="AX54:AZ55"/>
-    <mergeCell ref="BA54:BH55"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:G53"/>
-    <mergeCell ref="H52:L53"/>
-    <mergeCell ref="M52:S53"/>
-    <mergeCell ref="T52:AB53"/>
-    <mergeCell ref="AC52:AM53"/>
-    <mergeCell ref="AN52:AQ53"/>
-    <mergeCell ref="AR52:AT53"/>
-    <mergeCell ref="AU52:AW53"/>
-    <mergeCell ref="AU58:AW59"/>
-    <mergeCell ref="AX56:AZ57"/>
-    <mergeCell ref="BA56:BH57"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:G57"/>
-    <mergeCell ref="H56:L57"/>
-    <mergeCell ref="M56:S57"/>
-    <mergeCell ref="T56:AB57"/>
-    <mergeCell ref="AC56:AM57"/>
-    <mergeCell ref="AN56:AQ57"/>
-    <mergeCell ref="AR56:AT57"/>
-    <mergeCell ref="AU56:AW57"/>
-    <mergeCell ref="AN62:AQ63"/>
-    <mergeCell ref="AR62:AT63"/>
-    <mergeCell ref="AU62:AW63"/>
-    <mergeCell ref="AX58:AZ59"/>
-    <mergeCell ref="BA58:BH59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:G61"/>
-    <mergeCell ref="H60:L61"/>
-    <mergeCell ref="M60:S61"/>
-    <mergeCell ref="T60:AB61"/>
-    <mergeCell ref="AC60:AM61"/>
-    <mergeCell ref="AN60:AQ61"/>
-    <mergeCell ref="AR60:AT61"/>
-    <mergeCell ref="AU60:AW61"/>
-    <mergeCell ref="AX60:AZ61"/>
-    <mergeCell ref="BA60:BH61"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:G59"/>
-    <mergeCell ref="H58:L59"/>
-    <mergeCell ref="M58:S59"/>
-    <mergeCell ref="T58:AB59"/>
-    <mergeCell ref="AC58:AM59"/>
-    <mergeCell ref="AN58:AQ59"/>
-    <mergeCell ref="AR58:AT59"/>
-    <mergeCell ref="BA12:BH13"/>
-    <mergeCell ref="BA14:BH15"/>
-    <mergeCell ref="BA16:BH17"/>
-    <mergeCell ref="BA28:BH28"/>
-    <mergeCell ref="BA29:BH29"/>
-    <mergeCell ref="AX62:AZ63"/>
-    <mergeCell ref="BA62:BH63"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:G65"/>
-    <mergeCell ref="H64:L65"/>
-    <mergeCell ref="M64:S65"/>
-    <mergeCell ref="T64:AB65"/>
-    <mergeCell ref="AC64:AM65"/>
-    <mergeCell ref="AN64:AQ65"/>
-    <mergeCell ref="AR64:AT65"/>
-    <mergeCell ref="AU64:AW65"/>
-    <mergeCell ref="AX64:AZ65"/>
-    <mergeCell ref="BA64:BH65"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:G63"/>
-    <mergeCell ref="H62:L63"/>
-    <mergeCell ref="M62:S63"/>
-    <mergeCell ref="T62:AB63"/>
-    <mergeCell ref="AC62:AM63"/>
+    <mergeCell ref="BA24:BH25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="H26:L27"/>
+    <mergeCell ref="M26:S27"/>
+    <mergeCell ref="T26:AB27"/>
+    <mergeCell ref="AC26:AM27"/>
+    <mergeCell ref="AN26:AQ27"/>
+    <mergeCell ref="AR26:AT27"/>
+    <mergeCell ref="AU26:AW27"/>
+    <mergeCell ref="AX26:AZ27"/>
+    <mergeCell ref="BA26:BH27"/>
+    <mergeCell ref="AC24:AM25"/>
+    <mergeCell ref="AN24:AQ25"/>
+    <mergeCell ref="AR24:AT25"/>
+    <mergeCell ref="AU24:AW25"/>
+    <mergeCell ref="AX24:AZ25"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:G25"/>
+    <mergeCell ref="H24:L25"/>
+    <mergeCell ref="M24:S25"/>
+    <mergeCell ref="T24:AB25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR64 AR10 AR14 AR16 AR18 AR20 AR22 AR24 AR26 AR28 AR30 AR32 AR34 AR36 AR38 AR40 AR42 AR44 AR46 AR48 AR50 AR52 AR54 AR56 AR58 AR60 AR62 AR12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR64 AR10 AR14 AR16 AR18 AR20 AR22 AR24 AR26 AR12 AR28 AR30 AR32 AR34 AR36 AR40 AR46 AR42 AR38 AR44 AR50 AR52 AR54 AR56 AR58 AR60 AR62 AR48">
       <formula1>"N/A,OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="BA20:BH21" location="Evidance!C60" display="Evidance!C60"/>
+    <hyperlink ref="BA38:BH39" location="Evidance!C151" display="Evidance!C151"/>
+    <hyperlink ref="BA44:BH45" location="Evidance!C192" display="Evidance!C192"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="15" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -9066,10 +9617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:Y577"/>
+  <dimension ref="C2:Y577"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9080,8 +9631,13 @@
     <row r="25" spans="4:4">
       <c r="D25" s="45"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="3:4">
       <c r="D52" s="45"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="45"/>
@@ -9089,14 +9645,27 @@
     <row r="110" spans="4:4">
       <c r="D110" s="45"/>
     </row>
-    <row r="145" spans="4:4">
+    <row r="133" spans="3:3">
+      <c r="C133" s="139"/>
+    </row>
+    <row r="145" spans="3:4">
       <c r="D145" s="45"/>
     </row>
-    <row r="154" spans="4:4">
+    <row r="151" spans="3:4">
+      <c r="C151" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4">
       <c r="D154" s="45"/>
     </row>
     <row r="172" spans="4:4">
       <c r="D172" s="45"/>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="139" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="195" spans="4:4">
       <c r="D195" s="45"/>
@@ -9110,18 +9679,18 @@
     <row r="277" spans="4:20">
       <c r="D277" s="45"/>
       <c r="T277" s="45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="297" spans="4:25">
       <c r="H297" s="134" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I297" s="134"/>
       <c r="J297" s="134"/>
       <c r="K297" s="134"/>
       <c r="V297" s="134" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W297" s="134"/>
       <c r="X297" s="134"/>
@@ -9166,6 +9735,7 @@
     <mergeCell ref="V297:Y297"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
